--- a/Excel/Labs/Excel Data Analysis for Auditors.xlsx
+++ b/Excel/Labs/Excel Data Analysis for Auditors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevReady\Workshops\Microsoft Office\Courses\Excel\Advanced Excel for IA\Labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4C47FD-F890-44B4-AD7C-27D365ED8DEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917D6992-051A-45BE-A39E-655D9F60BDB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{26E27E33-D07B-4553-B9D6-3803F30BBC3E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{26E27E33-D07B-4553-B9D6-3803F30BBC3E}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -23,24 +23,19 @@
     <sheet name="Gaps" sheetId="4" r:id="rId8"/>
     <sheet name="Gaps II" sheetId="6" r:id="rId9"/>
     <sheet name="Aging" sheetId="8" r:id="rId10"/>
-    <sheet name="Date Filter" sheetId="18" r:id="rId11"/>
-    <sheet name="Errors" sheetId="9" r:id="rId12"/>
+    <sheet name="Matching two lists" sheetId="14" r:id="rId11"/>
+    <sheet name="Date Filter" sheetId="18" r:id="rId12"/>
     <sheet name="Transpose" sheetId="10" r:id="rId13"/>
     <sheet name="Icon Sets" sheetId="11" r:id="rId14"/>
     <sheet name="Download" sheetId="15" state="hidden" r:id="rId15"/>
     <sheet name="Sorting" sheetId="13" r:id="rId16"/>
-    <sheet name="Formula auditing" sheetId="12" r:id="rId17"/>
-    <sheet name="Matching two lists" sheetId="14" r:id="rId18"/>
-    <sheet name="Array Formula 1" sheetId="17" r:id="rId19"/>
-    <sheet name="Array Formula 2" sheetId="16" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Aging!$A$7:$G$20</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Date Filter'!$A$3:$K$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Date Filter'!$A$5:$K$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Gaps!$A$5:$B$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Gaps II'!$A$5:$B$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Sorting!$A$5:$C$5</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'Icon Sets'!$E$4:$E$24</definedName>
     <definedName name="a">Transpose!$D$7</definedName>
     <definedName name="Transactions">Gaps!$A$6:$B$35</definedName>
   </definedNames>
@@ -108,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="262">
   <si>
     <t xml:space="preserve">Excel Data Analysis for Auditors </t>
   </si>
@@ -329,24 +324,6 @@
     <t>Receipt</t>
   </si>
   <si>
-    <t>Errors</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
     <t>https://github.com/NajiElKotob/awesomemso#excel</t>
   </si>
   <si>
@@ -488,9 +465,6 @@
     <t>Invoice Date</t>
   </si>
   <si>
-    <t>Version 3.2 | Last Update June 2020</t>
-  </si>
-  <si>
     <t>Text 3</t>
   </si>
   <si>
@@ -581,15 +555,6 @@
     <t>Icon Sets</t>
   </si>
   <si>
-    <t>Formula auditing</t>
-  </si>
-  <si>
-    <t>Tilde</t>
-  </si>
-  <si>
-    <t>~</t>
-  </si>
-  <si>
     <t>Sorting</t>
   </si>
   <si>
@@ -627,21 +592,6 @@
   </si>
   <si>
     <t>Data Analyst</t>
-  </si>
-  <si>
-    <t>Total Sales</t>
-  </si>
-  <si>
-    <t>Replacing a thousand formulas with one using Array Formula</t>
-  </si>
-  <si>
-    <t>Read more about Array formula at https://support.microsoft.com/en-us/office/guidelines-and-examples-of-array-formulas-7d94a64e-3ff3-4686-9372-ecfd5caa57c7</t>
-  </si>
-  <si>
-    <t>Line Total</t>
-  </si>
-  <si>
-    <t>Type your formula an press Ctrl+Shift+Enter, they’re commonly referred to as CSE formulas.</t>
   </si>
   <si>
     <t>Naji El Kotob</t>
@@ -673,15 +623,6 @@
     </r>
   </si>
   <si>
-    <t>Array Formula</t>
-  </si>
-  <si>
-    <t>Len</t>
-  </si>
-  <si>
-    <t>Total Number of Char.</t>
-  </si>
-  <si>
     <t>EmployeeID</t>
   </si>
   <si>
@@ -928,16 +869,62 @@
     <t>123</t>
   </si>
   <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
     <t>Data Types</t>
   </si>
   <si>
-    <t>t</t>
+    <t>Version 3.4 | Last Update June 2020</t>
+  </si>
+  <si>
+    <t>Use the required functions to generate a full name from Title, FirstName and LastName. Also, take into consideration the 'Sentence case (First character capital)'</t>
+  </si>
+  <si>
+    <t>Date Time</t>
+  </si>
+  <si>
+    <t>Your Turn</t>
+  </si>
+  <si>
+    <t>Number As Text (Single Quote)</t>
+  </si>
+  <si>
+    <t>Number As Text (Cell Type)</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Desc.</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use 'Fill Handle' </t>
+  </si>
+  <si>
+    <t>Your turn</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Your turn </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(0-19 Red, 20-49 Yellow, 50- Green)</t>
+    </r>
+  </si>
+  <si>
+    <t>Find the difference in the LastName</t>
+  </si>
+  <si>
+    <t>Filter the table by the OrderDate of this week.</t>
   </si>
 </sst>
 </file>
@@ -952,7 +939,7 @@
     <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="167" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1047,21 +1034,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -1074,8 +1046,32 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1109,6 +1105,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1207,7 +1209,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1245,16 +1247,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1262,19 +1270,7 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -1301,6 +1297,30 @@
           <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1334,685 +1354,13 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{D3EC2B01-DF9D-4007-A931-619A6847DFB7}">
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Chart 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A2C3959-D436-4D81-A49D-E5D5B4D82DF9}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4541520" y="396240"/>
-              <a:ext cx="2628900" cy="4053840"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F52572C-A50B-4856-96F6-A50DD22C9B4F}" name="Table1" displayName="Table1" ref="A3:C23" totalsRowShown="0">
   <autoFilter ref="A3:C23" xr:uid="{B1D2AFCD-3C19-4437-90E2-9DAA88812A01}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{D21C8DAC-ABCF-4EDD-8BB9-F3F1D25A5AE3}" name="Expense Type"/>
     <tableColumn id="2" xr3:uid="{174D483B-FE17-4B94-B115-61B7580008FF}" name="Description"/>
-    <tableColumn id="3" xr3:uid="{AD7049F6-3E1B-407E-81D0-9CB94292B9A3}" name="Amount" dataDxfId="7" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{AD7049F6-3E1B-407E-81D0-9CB94292B9A3}" name="Amount" dataDxfId="11" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2024,10 +1372,26 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{9872D77B-B7B8-49FE-B232-D15FB47FFB04}" name="OrderID" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{F412AF4D-F038-4210-8299-038772EE641D}" name="ProductID"/>
-    <tableColumn id="3" xr3:uid="{12215B76-0E01-4968-A09A-5A9C9AA4AEAD}" name="UnitPrice" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{12215B76-0E01-4968-A09A-5A9C9AA4AEAD}" name="UnitPrice" dataDxfId="10" totalsRowDxfId="9" dataCellStyle="Currency"/>
     <tableColumn id="4" xr3:uid="{FEC02423-5CD0-47AE-972A-95F157082495}" name="Quantity"/>
-    <tableColumn id="6" xr3:uid="{7C9E7739-3F30-4A53-942E-BA7532344691}" name="Sales" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Currency">
+    <tableColumn id="6" xr3:uid="{7C9E7739-3F30-4A53-942E-BA7532344691}" name="Sales" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="7" dataCellStyle="Currency">
       <calculatedColumnFormula>Table3[[#This Row],[UnitPrice]]*Table3[[#This Row],[Quantity]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{26347CBE-58B4-4C81-A14C-7618D09F403D}" name="Table33" displayName="Table33" ref="H3:L25" totalsRowCount="1">
+  <autoFilter ref="H3:L24" xr:uid="{37C92717-4470-46AE-9978-45E5656FD322}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{292E6F6A-4BE8-42DC-98A1-65CD759A2EE7}" name="OrderID" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{22C1ACFF-23DE-43CF-8926-9ED20A629930}" name="ProductID"/>
+    <tableColumn id="3" xr3:uid="{A941D3F7-A0E4-4438-8FB9-915C37AB8B60}" name="UnitPrice" dataDxfId="5" totalsRowDxfId="6" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{806AF866-CF21-46A4-A43F-CDE1F27CDE5C}" name="Quantity"/>
+    <tableColumn id="6" xr3:uid="{0A0275F6-C186-42E4-8970-E2B394621E89}" name="Sales" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="4" dataCellStyle="Currency">
+      <calculatedColumnFormula>Table33[[#This Row],[UnitPrice]]*Table33[[#This Row],[Quantity]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2333,8 +1697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04F826C-819A-4513-B5C5-860282237177}">
   <dimension ref="B2:C11"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2351,36 +1715,36 @@
     </row>
     <row r="4" spans="2:3" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="19" t="s">
-        <v>126</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="21" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="21" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="21" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
@@ -2399,9 +1763,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543934E6-C556-4D06-B28C-BB2DF0E1FE9B}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:B23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2417,13 +1783,13 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" s="17">
         <f ca="1">TODAY()</f>
-        <v>44011</v>
+        <v>44013</v>
       </c>
       <c r="C3" s="23" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B3)</f>
@@ -2448,65 +1814,65 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B6" s="18">
         <f ca="1">TODAY()</f>
-        <v>44011</v>
+        <v>44013</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F7" s="26" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D8" s="23">
         <v>51</v>
       </c>
       <c r="E8" s="17">
         <f t="shared" ref="E8:E19" ca="1" si="0">TODAY() - D8</f>
-        <v>43960</v>
+        <v>43962</v>
       </c>
       <c r="F8" s="4">
         <f ca="1">RANDBETWEEN(200,2000)</f>
-        <v>685</v>
+        <v>1440</v>
       </c>
       <c r="G8" s="20">
         <f ca="1">$B$6-E8</f>
@@ -2518,7 +1884,7 @@
       </c>
       <c r="I8">
         <f ca="1">IF(AND($G8&gt;30,$G8&lt;=60),$F8,"")</f>
-        <v>685</v>
+        <v>1440</v>
       </c>
       <c r="J8" t="str">
         <f ca="1">IF($G8&gt;60,$F8,"")</f>
@@ -2527,24 +1893,24 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D9" s="23">
         <v>71</v>
       </c>
       <c r="E9" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>43940</v>
+        <v>43942</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" ref="F9:F19" ca="1" si="1">RANDBETWEEN(200,2000)</f>
-        <v>840</v>
+        <v>388</v>
       </c>
       <c r="G9" s="20">
         <f t="shared" ref="G9:G19" ca="1" si="2">$B$6-E9</f>
@@ -2560,29 +1926,29 @@
       </c>
       <c r="J9">
         <f t="shared" ref="J9:J19" ca="1" si="5">IF($G9&gt;60,$F9,"")</f>
-        <v>840</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D10" s="23">
         <v>31</v>
       </c>
       <c r="E10" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>43980</v>
+        <v>43982</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>222</v>
+        <v>1521</v>
       </c>
       <c r="G10" s="20">
         <f t="shared" ca="1" si="2"/>
@@ -2594,7 +1960,7 @@
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="4"/>
-        <v>222</v>
+        <v>1521</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2603,24 +1969,24 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D11" s="23">
         <v>11</v>
       </c>
       <c r="E11" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>44000</v>
+        <v>44002</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>866</v>
+        <v>1076</v>
       </c>
       <c r="G11" s="20">
         <f t="shared" ca="1" si="2"/>
@@ -2628,7 +1994,7 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="3"/>
-        <v>866</v>
+        <v>1076</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2641,24 +2007,24 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D12" s="23">
         <v>53</v>
       </c>
       <c r="E12" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1003</v>
+        <v>499</v>
       </c>
       <c r="G12" s="20">
         <f t="shared" ca="1" si="2"/>
@@ -2670,7 +2036,7 @@
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="4"/>
-        <v>1003</v>
+        <v>499</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2679,24 +2045,24 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D13" s="23">
         <v>12</v>
       </c>
       <c r="E13" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>43999</v>
+        <v>44001</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1295</v>
+        <v>1747</v>
       </c>
       <c r="G13" s="20">
         <f t="shared" ca="1" si="2"/>
@@ -2704,7 +2070,7 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="3"/>
-        <v>1295</v>
+        <v>1747</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2717,24 +2083,24 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D14" s="23">
         <v>22</v>
       </c>
       <c r="E14" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>43989</v>
+        <v>43991</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1252</v>
+        <v>673</v>
       </c>
       <c r="G14" s="20">
         <f t="shared" ca="1" si="2"/>
@@ -2742,7 +2108,7 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="3"/>
-        <v>1252</v>
+        <v>673</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2755,24 +2121,24 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D15" s="23">
         <v>64</v>
       </c>
       <c r="E15" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>43947</v>
+        <v>43949</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>665</v>
+        <v>1169</v>
       </c>
       <c r="G15" s="20">
         <f t="shared" ca="1" si="2"/>
@@ -2788,29 +2154,29 @@
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="5"/>
-        <v>665</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D16" s="23">
         <v>90</v>
       </c>
       <c r="E16" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>43921</v>
+        <v>43923</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1455</v>
+        <v>1123</v>
       </c>
       <c r="G16" s="20">
         <f t="shared" ca="1" si="2"/>
@@ -2826,29 +2192,29 @@
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="5"/>
-        <v>1455</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D17" s="23">
         <v>41</v>
       </c>
       <c r="E17" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>43970</v>
+        <v>43972</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>977</v>
+        <v>1946</v>
       </c>
       <c r="G17" s="20">
         <f t="shared" ca="1" si="2"/>
@@ -2860,7 +2226,7 @@
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="4"/>
-        <v>977</v>
+        <v>1946</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2869,24 +2235,24 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D18" s="23">
         <v>37</v>
       </c>
       <c r="E18" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>43974</v>
+        <v>43976</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>213</v>
+        <v>501</v>
       </c>
       <c r="G18" s="20">
         <f t="shared" ca="1" si="2"/>
@@ -2898,7 +2264,7 @@
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="4"/>
-        <v>213</v>
+        <v>501</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2907,24 +2273,24 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D19" s="23">
         <v>16</v>
       </c>
       <c r="E19" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>43995</v>
+        <v>43997</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>512</v>
+        <v>1534</v>
       </c>
       <c r="G19" s="20">
         <f t="shared" ca="1" si="2"/>
@@ -2932,7 +2298,7 @@
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="3"/>
-        <v>512</v>
+        <v>1534</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2948,27 +2314,407 @@
       <c r="B20" s="24"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
+      <c r="E20" s="47">
+        <f ca="1">COUNTA(E8:E19)</f>
+        <v>12</v>
+      </c>
+      <c r="F20" s="24">
+        <f ca="1">SUM(F8:F19)</f>
+        <v>13617</v>
+      </c>
+      <c r="G20" s="46">
+        <f ca="1">AVERAGE(G8:G19)</f>
+        <v>41.583333333333336</v>
+      </c>
       <c r="H20" s="24">
         <f ca="1">SUM(H8:H19)</f>
-        <v>3925</v>
+        <v>5030</v>
       </c>
       <c r="I20" s="24">
         <f t="shared" ref="I20:J20" ca="1" si="6">SUM(I8:I19)</f>
-        <v>3100</v>
+        <v>5907</v>
       </c>
       <c r="J20" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>2960</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="48"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="B23" s="45"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="18">
+        <f ca="1">TODAY()</f>
+        <v>44013</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="23">
+        <v>51</v>
+      </c>
+      <c r="E26" s="17">
+        <f t="shared" ref="E26:E37" ca="1" si="7">TODAY() - D26</f>
+        <v>43962</v>
+      </c>
+      <c r="F26" s="4">
+        <f ca="1">RANDBETWEEN(200,2000)</f>
+        <v>1935</v>
+      </c>
+      <c r="G26" s="20">
+        <f ca="1">$B$6-E26</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="23">
+        <v>71</v>
+      </c>
+      <c r="E27" s="17">
+        <f t="shared" ca="1" si="7"/>
+        <v>43942</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" ref="F27:F37" ca="1" si="8">RANDBETWEEN(200,2000)</f>
+        <v>1148</v>
+      </c>
+      <c r="G27" s="20">
+        <f t="shared" ref="G27:G37" ca="1" si="9">$B$6-E27</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="23">
+        <v>31</v>
+      </c>
+      <c r="E28" s="17">
+        <f t="shared" ca="1" si="7"/>
+        <v>43982</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>514</v>
+      </c>
+      <c r="G28" s="20">
+        <f t="shared" ca="1" si="9"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="23">
+        <v>11</v>
+      </c>
+      <c r="E29" s="17">
+        <f t="shared" ca="1" si="7"/>
+        <v>44002</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>1193</v>
+      </c>
+      <c r="G29" s="20">
+        <f t="shared" ca="1" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="23">
+        <v>53</v>
+      </c>
+      <c r="E30" s="17">
+        <f t="shared" ca="1" si="7"/>
+        <v>43960</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>1463</v>
+      </c>
+      <c r="G30" s="20">
+        <f t="shared" ca="1" si="9"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="23">
+        <v>12</v>
+      </c>
+      <c r="E31" s="17">
+        <f t="shared" ca="1" si="7"/>
+        <v>44001</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>359</v>
+      </c>
+      <c r="G31" s="20">
+        <f t="shared" ca="1" si="9"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="23">
+        <v>22</v>
+      </c>
+      <c r="E32" s="17">
+        <f t="shared" ca="1" si="7"/>
+        <v>43991</v>
+      </c>
+      <c r="F32" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>1845</v>
+      </c>
+      <c r="G32" s="20">
+        <f t="shared" ca="1" si="9"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="23">
+        <v>64</v>
+      </c>
+      <c r="E33" s="17">
+        <f t="shared" ca="1" si="7"/>
+        <v>43949</v>
+      </c>
+      <c r="F33" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>1596</v>
+      </c>
+      <c r="G33" s="20">
+        <f t="shared" ca="1" si="9"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="23">
+        <v>90</v>
+      </c>
+      <c r="E34" s="17">
+        <f t="shared" ca="1" si="7"/>
+        <v>43923</v>
+      </c>
+      <c r="F34" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>218</v>
+      </c>
+      <c r="G34" s="20">
+        <f t="shared" ca="1" si="9"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="23">
+        <v>41</v>
+      </c>
+      <c r="E35" s="17">
+        <f t="shared" ca="1" si="7"/>
+        <v>43972</v>
+      </c>
+      <c r="F35" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>753</v>
+      </c>
+      <c r="G35" s="20">
+        <f t="shared" ca="1" si="9"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="23">
+        <v>37</v>
+      </c>
+      <c r="E36" s="17">
+        <f t="shared" ca="1" si="7"/>
+        <v>43976</v>
+      </c>
+      <c r="F36" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>1183</v>
+      </c>
+      <c r="G36" s="20">
+        <f t="shared" ca="1" si="9"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" s="23">
+        <v>16</v>
+      </c>
+      <c r="E37" s="17">
+        <f t="shared" ca="1" si="7"/>
+        <v>43997</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>1983</v>
+      </c>
+      <c r="G37" s="20">
+        <f t="shared" ca="1" si="9"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A7:G20" xr:uid="{96AD878E-58F6-4A8F-AABE-CAA94690029A}"/>
   <conditionalFormatting sqref="A8:G19">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$G8&gt;60</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2977,12 +2723,242 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6C2750-D323-4DF4-913E-40F116A329D7}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:K48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBD341C-AA08-4495-BC57-877B9E5E77B4}">
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:XFD57"/>
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="52" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6C2750-D323-4DF4-913E-40F116A329D7}">
+  <dimension ref="A1:K50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2999,1744 +2975,1671 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="F3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G3" t="s">
-        <v>186</v>
-      </c>
-      <c r="H3" t="s">
-        <v>187</v>
-      </c>
-      <c r="I3" t="s">
-        <v>188</v>
-      </c>
-      <c r="J3" t="s">
-        <v>189</v>
-      </c>
-      <c r="K3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>10249</v>
-      </c>
-      <c r="B4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4" s="17">
-        <f ca="1">TODAY() - E4</f>
-        <v>44011</v>
-      </c>
-      <c r="E4" s="20">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>11.61</v>
-      </c>
-      <c r="G4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H4" t="s">
-        <v>193</v>
-      </c>
-      <c r="I4" t="s">
-        <v>194</v>
-      </c>
-      <c r="J4" t="s">
-        <v>195</v>
-      </c>
-      <c r="K4" t="s">
-        <v>196</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>10260</v>
+      <c r="A5" t="s">
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" s="17">
-        <f t="shared" ref="D5:D48" ca="1" si="0">TODAY() - E5</f>
-        <v>44011</v>
-      </c>
-      <c r="E5" s="20">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>55.09</v>
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="F5" t="s">
+        <v>167</v>
       </c>
       <c r="G5" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="H5" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="I5" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="J5" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="K5" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
+        <v>10249</v>
+      </c>
+      <c r="B6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6" s="17">
+        <f ca="1">TODAY() - E6</f>
+        <v>44013</v>
+      </c>
+      <c r="E6" s="20">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>11.61</v>
+      </c>
+      <c r="G6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H6" t="s">
+        <v>175</v>
+      </c>
+      <c r="I6" t="s">
+        <v>176</v>
+      </c>
+      <c r="J6" t="s">
+        <v>177</v>
+      </c>
+      <c r="K6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>10260</v>
+      </c>
+      <c r="B7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="17">
+        <f t="shared" ref="D7:D50" ca="1" si="0">TODAY() - E7</f>
+        <v>44013</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>55.09</v>
+      </c>
+      <c r="G7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H7" t="s">
+        <v>181</v>
+      </c>
+      <c r="I7" t="s">
+        <v>182</v>
+      </c>
+      <c r="J7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>10267</v>
       </c>
-      <c r="B6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C6">
+      <c r="B8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8">
         <v>4</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D8" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>44013</v>
+      </c>
+      <c r="E8" s="20">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>208.58</v>
+      </c>
+      <c r="G8" t="s">
+        <v>185</v>
+      </c>
+      <c r="H8" t="s">
+        <v>186</v>
+      </c>
+      <c r="I8" t="s">
+        <v>187</v>
+      </c>
+      <c r="J8" t="s">
+        <v>188</v>
+      </c>
+      <c r="K8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>10273</v>
+      </c>
+      <c r="B9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>44012</v>
+      </c>
+      <c r="E9" s="20">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>76.069999999999993</v>
+      </c>
+      <c r="G9" t="s">
+        <v>190</v>
+      </c>
+      <c r="H9" t="s">
+        <v>191</v>
+      </c>
+      <c r="I9" t="s">
+        <v>192</v>
+      </c>
+      <c r="J9" t="s">
+        <v>193</v>
+      </c>
+      <c r="K9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10277</v>
+      </c>
+      <c r="B10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>44011</v>
       </c>
-      <c r="E6" s="20">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>208.58</v>
-      </c>
-      <c r="G6" t="s">
-        <v>203</v>
-      </c>
-      <c r="H6" t="s">
-        <v>204</v>
-      </c>
-      <c r="I6" t="s">
-        <v>205</v>
-      </c>
-      <c r="J6" t="s">
-        <v>206</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="E10" s="20">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>125.77</v>
+      </c>
+      <c r="G10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H10" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>10273</v>
-      </c>
-      <c r="B7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7" s="17">
+      <c r="I10" t="s">
+        <v>197</v>
+      </c>
+      <c r="J10" t="s">
+        <v>198</v>
+      </c>
+      <c r="K10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10279</v>
+      </c>
+      <c r="B11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>44010</v>
       </c>
-      <c r="E7" s="20">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>76.069999999999993</v>
-      </c>
-      <c r="G7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H7" t="s">
-        <v>209</v>
-      </c>
-      <c r="I7" t="s">
-        <v>210</v>
-      </c>
-      <c r="J7" t="s">
-        <v>211</v>
-      </c>
-      <c r="K7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>10277</v>
-      </c>
-      <c r="B8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" s="17">
+      <c r="E11" s="20">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>25.83</v>
+      </c>
+      <c r="G11" t="s">
+        <v>200</v>
+      </c>
+      <c r="H11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I11" t="s">
+        <v>202</v>
+      </c>
+      <c r="J11" t="s">
+        <v>203</v>
+      </c>
+      <c r="K11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10284</v>
+      </c>
+      <c r="B12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>44009</v>
       </c>
-      <c r="E8" s="20">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>125.77</v>
-      </c>
-      <c r="G8" t="s">
-        <v>213</v>
-      </c>
-      <c r="H8" t="s">
-        <v>214</v>
-      </c>
-      <c r="I8" t="s">
-        <v>215</v>
-      </c>
-      <c r="J8" t="s">
-        <v>216</v>
-      </c>
-      <c r="K8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>10279</v>
-      </c>
-      <c r="B9" t="s">
-        <v>217</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9" s="17">
+      <c r="E12" s="20">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>76.56</v>
+      </c>
+      <c r="G12" t="s">
+        <v>200</v>
+      </c>
+      <c r="H12" t="s">
+        <v>201</v>
+      </c>
+      <c r="I12" t="s">
+        <v>202</v>
+      </c>
+      <c r="J12" t="s">
+        <v>203</v>
+      </c>
+      <c r="K12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10285</v>
+      </c>
+      <c r="B13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>44008</v>
       </c>
-      <c r="E9" s="20">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>25.83</v>
-      </c>
-      <c r="G9" t="s">
-        <v>218</v>
-      </c>
-      <c r="H9" t="s">
-        <v>219</v>
-      </c>
-      <c r="I9" t="s">
-        <v>220</v>
-      </c>
-      <c r="J9" t="s">
-        <v>221</v>
-      </c>
-      <c r="K9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>10284</v>
-      </c>
-      <c r="B10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10" s="17">
+      <c r="E13" s="20">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>76.83</v>
+      </c>
+      <c r="G13" t="s">
+        <v>190</v>
+      </c>
+      <c r="H13" t="s">
+        <v>191</v>
+      </c>
+      <c r="I13" t="s">
+        <v>192</v>
+      </c>
+      <c r="J13" t="s">
+        <v>193</v>
+      </c>
+      <c r="K13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>10286</v>
+      </c>
+      <c r="B14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>44007</v>
       </c>
-      <c r="E10" s="20">
-        <v>4</v>
-      </c>
-      <c r="F10">
-        <v>76.56</v>
-      </c>
-      <c r="G10" t="s">
-        <v>218</v>
-      </c>
-      <c r="H10" t="s">
-        <v>219</v>
-      </c>
-      <c r="I10" t="s">
-        <v>220</v>
-      </c>
-      <c r="J10" t="s">
-        <v>221</v>
-      </c>
-      <c r="K10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10285</v>
-      </c>
-      <c r="B11" t="s">
-        <v>207</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="17">
+      <c r="E14" s="20">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>229.24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>190</v>
+      </c>
+      <c r="H14" t="s">
+        <v>191</v>
+      </c>
+      <c r="I14" t="s">
+        <v>192</v>
+      </c>
+      <c r="J14" t="s">
+        <v>193</v>
+      </c>
+      <c r="K14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>10301</v>
+      </c>
+      <c r="B15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>44006</v>
       </c>
-      <c r="E11" s="20">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <v>76.83</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="E15" s="20">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>45.08</v>
+      </c>
+      <c r="G15" t="s">
+        <v>205</v>
+      </c>
+      <c r="H15" t="s">
+        <v>206</v>
+      </c>
+      <c r="I15" t="s">
+        <v>207</v>
+      </c>
+      <c r="J15" t="s">
         <v>208</v>
       </c>
-      <c r="H11" t="s">
-        <v>209</v>
-      </c>
-      <c r="I11" t="s">
-        <v>210</v>
-      </c>
-      <c r="J11" t="s">
-        <v>211</v>
-      </c>
-      <c r="K11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10286</v>
-      </c>
-      <c r="B12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C12">
-        <v>8</v>
-      </c>
-      <c r="D12" s="17">
+      <c r="K15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>10312</v>
+      </c>
+      <c r="B16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>44005</v>
       </c>
-      <c r="E12" s="20">
-        <v>6</v>
-      </c>
-      <c r="F12">
-        <v>229.24</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="E16" s="20">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>40.26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>205</v>
+      </c>
+      <c r="H16" t="s">
+        <v>206</v>
+      </c>
+      <c r="I16" t="s">
+        <v>207</v>
+      </c>
+      <c r="J16" t="s">
         <v>208</v>
       </c>
-      <c r="H12" t="s">
-        <v>209</v>
-      </c>
-      <c r="I12" t="s">
-        <v>210</v>
-      </c>
-      <c r="J12" t="s">
-        <v>211</v>
-      </c>
-      <c r="K12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>10301</v>
-      </c>
-      <c r="B13" t="s">
-        <v>222</v>
-      </c>
-      <c r="C13">
-        <v>8</v>
-      </c>
-      <c r="D13" s="17">
+      <c r="K16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>10313</v>
+      </c>
+      <c r="B17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>44004</v>
       </c>
-      <c r="E13" s="20">
-        <v>7</v>
-      </c>
-      <c r="F13">
-        <v>45.08</v>
-      </c>
-      <c r="G13" t="s">
-        <v>223</v>
-      </c>
-      <c r="H13" t="s">
-        <v>224</v>
-      </c>
-      <c r="I13" t="s">
-        <v>225</v>
-      </c>
-      <c r="J13" t="s">
-        <v>226</v>
-      </c>
-      <c r="K13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>10312</v>
-      </c>
-      <c r="B14" t="s">
-        <v>222</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14" s="17">
+      <c r="E17" s="20">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>1.96</v>
+      </c>
+      <c r="G17" t="s">
+        <v>190</v>
+      </c>
+      <c r="H17" t="s">
+        <v>191</v>
+      </c>
+      <c r="I17" t="s">
+        <v>192</v>
+      </c>
+      <c r="J17" t="s">
+        <v>193</v>
+      </c>
+      <c r="K17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>10323</v>
+      </c>
+      <c r="B18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>44003</v>
       </c>
-      <c r="E14" s="20">
-        <v>8</v>
-      </c>
-      <c r="F14">
-        <v>40.26</v>
-      </c>
-      <c r="G14" t="s">
-        <v>223</v>
-      </c>
-      <c r="H14" t="s">
-        <v>224</v>
-      </c>
-      <c r="I14" t="s">
-        <v>225</v>
-      </c>
-      <c r="J14" t="s">
-        <v>226</v>
-      </c>
-      <c r="K14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>10313</v>
-      </c>
-      <c r="B15" t="s">
-        <v>207</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" s="17">
+      <c r="E18" s="20">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>4.88</v>
+      </c>
+      <c r="G18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H18" t="s">
+        <v>211</v>
+      </c>
+      <c r="I18" t="s">
+        <v>212</v>
+      </c>
+      <c r="J18" t="s">
+        <v>213</v>
+      </c>
+      <c r="K18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>10325</v>
+      </c>
+      <c r="B19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>44002</v>
       </c>
-      <c r="E15" s="20">
-        <v>9</v>
-      </c>
-      <c r="F15">
-        <v>1.96</v>
-      </c>
-      <c r="G15" t="s">
-        <v>208</v>
-      </c>
-      <c r="H15" t="s">
-        <v>209</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="E19" s="20">
+        <v>11</v>
+      </c>
+      <c r="F19">
+        <v>64.86</v>
+      </c>
+      <c r="G19" t="s">
         <v>210</v>
       </c>
-      <c r="J15" t="s">
+      <c r="H19" t="s">
         <v>211</v>
       </c>
-      <c r="K15" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>10323</v>
-      </c>
-      <c r="B16" t="s">
-        <v>227</v>
-      </c>
-      <c r="C16">
+      <c r="I19" t="s">
+        <v>212</v>
+      </c>
+      <c r="J19" t="s">
+        <v>213</v>
+      </c>
+      <c r="K19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>10337</v>
+      </c>
+      <c r="B20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20">
         <v>4</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D20" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>44001</v>
       </c>
-      <c r="E16" s="20">
-        <v>10</v>
-      </c>
-      <c r="F16">
-        <v>4.88</v>
-      </c>
-      <c r="G16" t="s">
-        <v>228</v>
-      </c>
-      <c r="H16" t="s">
-        <v>229</v>
-      </c>
-      <c r="I16" t="s">
-        <v>230</v>
-      </c>
-      <c r="J16" t="s">
-        <v>231</v>
-      </c>
-      <c r="K16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>10325</v>
-      </c>
-      <c r="B17" t="s">
-        <v>227</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" s="17">
+      <c r="E20" s="20">
+        <v>12</v>
+      </c>
+      <c r="F20">
+        <v>108.26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>185</v>
+      </c>
+      <c r="H20" t="s">
+        <v>186</v>
+      </c>
+      <c r="I20" t="s">
+        <v>187</v>
+      </c>
+      <c r="J20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>10342</v>
+      </c>
+      <c r="B21" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>44000</v>
       </c>
-      <c r="E17" s="20">
-        <v>11</v>
-      </c>
-      <c r="F17">
-        <v>64.86</v>
-      </c>
-      <c r="G17" t="s">
-        <v>228</v>
-      </c>
-      <c r="H17" t="s">
-        <v>229</v>
-      </c>
-      <c r="I17" t="s">
-        <v>230</v>
-      </c>
-      <c r="J17" t="s">
-        <v>231</v>
-      </c>
-      <c r="K17" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>10337</v>
-      </c>
-      <c r="B18" t="s">
-        <v>202</v>
-      </c>
-      <c r="C18">
+      <c r="E21" s="20">
+        <v>13</v>
+      </c>
+      <c r="F21">
+        <v>54.83</v>
+      </c>
+      <c r="G21" t="s">
+        <v>185</v>
+      </c>
+      <c r="H21" t="s">
+        <v>186</v>
+      </c>
+      <c r="I21" t="s">
+        <v>187</v>
+      </c>
+      <c r="J21" t="s">
+        <v>188</v>
+      </c>
+      <c r="K21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>10343</v>
+      </c>
+      <c r="B22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C22">
         <v>4</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D22" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>43999</v>
       </c>
-      <c r="E18" s="20">
-        <v>12</v>
-      </c>
-      <c r="F18">
-        <v>108.26</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="E22" s="20">
+        <v>14</v>
+      </c>
+      <c r="F22">
+        <v>110.37</v>
+      </c>
+      <c r="G22" t="s">
+        <v>200</v>
+      </c>
+      <c r="H22" t="s">
+        <v>201</v>
+      </c>
+      <c r="I22" t="s">
+        <v>202</v>
+      </c>
+      <c r="J22" t="s">
         <v>203</v>
       </c>
-      <c r="H18" t="s">
-        <v>204</v>
-      </c>
-      <c r="I18" t="s">
-        <v>205</v>
-      </c>
-      <c r="J18" t="s">
-        <v>206</v>
-      </c>
-      <c r="K18" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>10342</v>
-      </c>
-      <c r="B19" t="s">
-        <v>202</v>
-      </c>
-      <c r="C19">
-        <v>4</v>
-      </c>
-      <c r="D19" s="17">
+      <c r="K22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>10345</v>
+      </c>
+      <c r="B23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>43998</v>
       </c>
-      <c r="E19" s="20">
-        <v>13</v>
-      </c>
-      <c r="F19">
-        <v>54.83</v>
-      </c>
-      <c r="G19" t="s">
-        <v>203</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="E23" s="20">
+        <v>15</v>
+      </c>
+      <c r="F23">
+        <v>249.06</v>
+      </c>
+      <c r="G23" t="s">
+        <v>190</v>
+      </c>
+      <c r="H23" t="s">
+        <v>191</v>
+      </c>
+      <c r="I23" t="s">
+        <v>192</v>
+      </c>
+      <c r="J23" t="s">
+        <v>193</v>
+      </c>
+      <c r="K23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>10348</v>
+      </c>
+      <c r="B24" t="s">
         <v>204</v>
       </c>
-      <c r="I19" t="s">
-        <v>205</v>
-      </c>
-      <c r="J19" t="s">
-        <v>206</v>
-      </c>
-      <c r="K19" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>10343</v>
-      </c>
-      <c r="B20" t="s">
-        <v>217</v>
-      </c>
-      <c r="C20">
+      <c r="C24">
         <v>4</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D24" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>43997</v>
       </c>
-      <c r="E20" s="20">
-        <v>14</v>
-      </c>
-      <c r="F20">
-        <v>110.37</v>
-      </c>
-      <c r="G20" t="s">
-        <v>218</v>
-      </c>
-      <c r="H20" t="s">
-        <v>219</v>
-      </c>
-      <c r="I20" t="s">
-        <v>220</v>
-      </c>
-      <c r="J20" t="s">
-        <v>221</v>
-      </c>
-      <c r="K20" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>10345</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="E24" s="20">
+        <v>16</v>
+      </c>
+      <c r="F24">
+        <v>0.78</v>
+      </c>
+      <c r="G24" t="s">
+        <v>205</v>
+      </c>
+      <c r="H24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I24" t="s">
         <v>207</v>
       </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21" s="17">
+      <c r="J24" t="s">
+        <v>208</v>
+      </c>
+      <c r="K24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>10356</v>
+      </c>
+      <c r="B25" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>43996</v>
       </c>
-      <c r="E21" s="20">
-        <v>15</v>
-      </c>
-      <c r="F21">
-        <v>249.06</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="E25" s="20">
+        <v>17</v>
+      </c>
+      <c r="F25">
+        <v>36.71</v>
+      </c>
+      <c r="G25" t="s">
+        <v>205</v>
+      </c>
+      <c r="H25" t="s">
+        <v>206</v>
+      </c>
+      <c r="I25" t="s">
+        <v>207</v>
+      </c>
+      <c r="J25" t="s">
         <v>208</v>
       </c>
-      <c r="H21" t="s">
-        <v>209</v>
-      </c>
-      <c r="I21" t="s">
-        <v>210</v>
-      </c>
-      <c r="J21" t="s">
-        <v>211</v>
-      </c>
-      <c r="K21" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>10348</v>
-      </c>
-      <c r="B22" t="s">
-        <v>222</v>
-      </c>
-      <c r="C22">
-        <v>4</v>
-      </c>
-      <c r="D22" s="17">
+      <c r="K25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>10361</v>
+      </c>
+      <c r="B26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>43995</v>
       </c>
-      <c r="E22" s="20">
-        <v>16</v>
-      </c>
-      <c r="F22">
-        <v>0.78</v>
-      </c>
-      <c r="G22" t="s">
-        <v>223</v>
-      </c>
-      <c r="H22" t="s">
-        <v>224</v>
-      </c>
-      <c r="I22" t="s">
-        <v>225</v>
-      </c>
-      <c r="J22" t="s">
-        <v>226</v>
-      </c>
-      <c r="K22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>10356</v>
-      </c>
-      <c r="B23" t="s">
-        <v>222</v>
-      </c>
-      <c r="C23">
-        <v>6</v>
-      </c>
-      <c r="D23" s="17">
+      <c r="E26" s="20">
+        <v>18</v>
+      </c>
+      <c r="F26">
+        <v>183.17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>190</v>
+      </c>
+      <c r="H26" t="s">
+        <v>191</v>
+      </c>
+      <c r="I26" t="s">
+        <v>192</v>
+      </c>
+      <c r="J26" t="s">
+        <v>193</v>
+      </c>
+      <c r="K26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>10363</v>
+      </c>
+      <c r="B27" t="s">
+        <v>214</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>43995</v>
+      </c>
+      <c r="E27" s="20">
+        <v>18</v>
+      </c>
+      <c r="F27">
+        <v>30.54</v>
+      </c>
+      <c r="G27" t="s">
+        <v>215</v>
+      </c>
+      <c r="H27" t="s">
+        <v>216</v>
+      </c>
+      <c r="I27" t="s">
+        <v>217</v>
+      </c>
+      <c r="J27" t="s">
+        <v>218</v>
+      </c>
+      <c r="K27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>10391</v>
+      </c>
+      <c r="B28" t="s">
+        <v>214</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>43995</v>
+      </c>
+      <c r="E28" s="20">
+        <v>18</v>
+      </c>
+      <c r="F28">
+        <v>5.45</v>
+      </c>
+      <c r="G28" t="s">
+        <v>215</v>
+      </c>
+      <c r="H28" t="s">
+        <v>216</v>
+      </c>
+      <c r="I28" t="s">
+        <v>217</v>
+      </c>
+      <c r="J28" t="s">
+        <v>218</v>
+      </c>
+      <c r="K28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>10396</v>
+      </c>
+      <c r="B29" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>43995</v>
+      </c>
+      <c r="E29" s="20">
+        <v>18</v>
+      </c>
+      <c r="F29">
+        <v>135.35</v>
+      </c>
+      <c r="G29" t="s">
+        <v>185</v>
+      </c>
+      <c r="H29" t="s">
+        <v>186</v>
+      </c>
+      <c r="I29" t="s">
+        <v>187</v>
+      </c>
+      <c r="J29" t="s">
+        <v>188</v>
+      </c>
+      <c r="K29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>10407</v>
+      </c>
+      <c r="B30" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>43994</v>
       </c>
-      <c r="E23" s="20">
-        <v>17</v>
-      </c>
-      <c r="F23">
-        <v>36.71</v>
-      </c>
-      <c r="G23" t="s">
-        <v>223</v>
-      </c>
-      <c r="H23" t="s">
-        <v>224</v>
-      </c>
-      <c r="I23" t="s">
-        <v>225</v>
-      </c>
-      <c r="J23" t="s">
-        <v>226</v>
-      </c>
-      <c r="K23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>10361</v>
-      </c>
-      <c r="B24" t="s">
-        <v>207</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" s="17">
+      <c r="E30" s="20">
+        <v>19</v>
+      </c>
+      <c r="F30">
+        <v>91.48</v>
+      </c>
+      <c r="G30" t="s">
+        <v>180</v>
+      </c>
+      <c r="H30" t="s">
+        <v>181</v>
+      </c>
+      <c r="I30" t="s">
+        <v>182</v>
+      </c>
+      <c r="J30" t="s">
+        <v>183</v>
+      </c>
+      <c r="K30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>10418</v>
+      </c>
+      <c r="B31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>43993</v>
       </c>
-      <c r="E24" s="20">
-        <v>18</v>
-      </c>
-      <c r="F24">
-        <v>183.17</v>
-      </c>
-      <c r="G24" t="s">
-        <v>208</v>
-      </c>
-      <c r="H24" t="s">
-        <v>209</v>
-      </c>
-      <c r="I24" t="s">
-        <v>210</v>
-      </c>
-      <c r="J24" t="s">
-        <v>211</v>
-      </c>
-      <c r="K24" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>10363</v>
-      </c>
-      <c r="B25" t="s">
-        <v>232</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
-      <c r="D25" s="17">
-        <f t="shared" ca="1" si="0"/>
-        <v>43993</v>
-      </c>
-      <c r="E25" s="20">
-        <v>18</v>
-      </c>
-      <c r="F25">
-        <v>30.54</v>
-      </c>
-      <c r="G25" t="s">
-        <v>233</v>
-      </c>
-      <c r="H25" t="s">
-        <v>234</v>
-      </c>
-      <c r="I25" t="s">
-        <v>235</v>
-      </c>
-      <c r="J25" t="s">
-        <v>236</v>
-      </c>
-      <c r="K25" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>10391</v>
-      </c>
-      <c r="B26" t="s">
-        <v>232</v>
-      </c>
-      <c r="C26">
+      <c r="E31" s="20">
+        <v>20</v>
+      </c>
+      <c r="F31">
+        <v>17.55</v>
+      </c>
+      <c r="G31" t="s">
+        <v>190</v>
+      </c>
+      <c r="H31" t="s">
+        <v>191</v>
+      </c>
+      <c r="I31" t="s">
+        <v>192</v>
+      </c>
+      <c r="J31" t="s">
+        <v>193</v>
+      </c>
+      <c r="K31" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>10438</v>
+      </c>
+      <c r="B32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32">
         <v>3</v>
       </c>
-      <c r="D26" s="17">
-        <f t="shared" ca="1" si="0"/>
-        <v>43993</v>
-      </c>
-      <c r="E26" s="20">
-        <v>18</v>
-      </c>
-      <c r="F26">
-        <v>5.45</v>
-      </c>
-      <c r="G26" t="s">
-        <v>233</v>
-      </c>
-      <c r="H26" t="s">
-        <v>234</v>
-      </c>
-      <c r="I26" t="s">
-        <v>235</v>
-      </c>
-      <c r="J26" t="s">
-        <v>236</v>
-      </c>
-      <c r="K26" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>10396</v>
-      </c>
-      <c r="B27" t="s">
-        <v>202</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" s="17">
-        <f t="shared" ca="1" si="0"/>
-        <v>43993</v>
-      </c>
-      <c r="E27" s="20">
-        <v>18</v>
-      </c>
-      <c r="F27">
-        <v>135.35</v>
-      </c>
-      <c r="G27" t="s">
-        <v>203</v>
-      </c>
-      <c r="H27" t="s">
-        <v>204</v>
-      </c>
-      <c r="I27" t="s">
-        <v>205</v>
-      </c>
-      <c r="J27" t="s">
-        <v>206</v>
-      </c>
-      <c r="K27" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>10407</v>
-      </c>
-      <c r="B28" t="s">
-        <v>197</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28" s="17">
+      <c r="D32" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>43992</v>
       </c>
-      <c r="E28" s="20">
-        <v>19</v>
-      </c>
-      <c r="F28">
-        <v>91.48</v>
-      </c>
-      <c r="G28" t="s">
-        <v>198</v>
-      </c>
-      <c r="H28" t="s">
-        <v>199</v>
-      </c>
-      <c r="I28" t="s">
-        <v>200</v>
-      </c>
-      <c r="J28" t="s">
-        <v>201</v>
-      </c>
-      <c r="K28" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>10418</v>
-      </c>
-      <c r="B29" t="s">
-        <v>207</v>
-      </c>
-      <c r="C29">
-        <v>4</v>
-      </c>
-      <c r="D29" s="17">
+      <c r="E32" s="20">
+        <v>21</v>
+      </c>
+      <c r="F32">
+        <v>8.24</v>
+      </c>
+      <c r="G32" t="s">
+        <v>174</v>
+      </c>
+      <c r="H32" t="s">
+        <v>175</v>
+      </c>
+      <c r="I32" t="s">
+        <v>176</v>
+      </c>
+      <c r="J32" t="s">
+        <v>177</v>
+      </c>
+      <c r="K32" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>10446</v>
+      </c>
+      <c r="B33" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>43991</v>
       </c>
-      <c r="E29" s="20">
-        <v>20</v>
-      </c>
-      <c r="F29">
-        <v>17.55</v>
-      </c>
-      <c r="G29" t="s">
-        <v>208</v>
-      </c>
-      <c r="H29" t="s">
-        <v>209</v>
-      </c>
-      <c r="I29" t="s">
-        <v>210</v>
-      </c>
-      <c r="J29" t="s">
-        <v>211</v>
-      </c>
-      <c r="K29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>10438</v>
-      </c>
-      <c r="B30" t="s">
-        <v>191</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30" s="17">
+      <c r="E33" s="20">
+        <v>22</v>
+      </c>
+      <c r="F33">
+        <v>14.68</v>
+      </c>
+      <c r="G33" t="s">
+        <v>174</v>
+      </c>
+      <c r="H33" t="s">
+        <v>175</v>
+      </c>
+      <c r="I33" t="s">
+        <v>176</v>
+      </c>
+      <c r="J33" t="s">
+        <v>177</v>
+      </c>
+      <c r="K33" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>10451</v>
+      </c>
+      <c r="B34" t="s">
+        <v>189</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>43990</v>
       </c>
-      <c r="E30" s="20">
-        <v>21</v>
-      </c>
-      <c r="F30">
-        <v>8.24</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="E34" s="20">
+        <v>23</v>
+      </c>
+      <c r="F34">
+        <v>189.09</v>
+      </c>
+      <c r="G34" t="s">
+        <v>190</v>
+      </c>
+      <c r="H34" t="s">
+        <v>191</v>
+      </c>
+      <c r="I34" t="s">
         <v>192</v>
       </c>
-      <c r="H30" t="s">
+      <c r="J34" t="s">
         <v>193</v>
       </c>
-      <c r="I30" t="s">
-        <v>194</v>
-      </c>
-      <c r="J30" t="s">
-        <v>195</v>
-      </c>
-      <c r="K30" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>10446</v>
-      </c>
-      <c r="B31" t="s">
-        <v>191</v>
-      </c>
-      <c r="C31">
-        <v>6</v>
-      </c>
-      <c r="D31" s="17">
+      <c r="K34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>10456</v>
+      </c>
+      <c r="B35" t="s">
+        <v>209</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>43989</v>
       </c>
-      <c r="E31" s="20">
-        <v>22</v>
-      </c>
-      <c r="F31">
-        <v>14.68</v>
-      </c>
-      <c r="G31" t="s">
-        <v>192</v>
-      </c>
-      <c r="H31" t="s">
-        <v>193</v>
-      </c>
-      <c r="I31" t="s">
-        <v>194</v>
-      </c>
-      <c r="J31" t="s">
-        <v>195</v>
-      </c>
-      <c r="K31" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>10451</v>
-      </c>
-      <c r="B32" t="s">
-        <v>207</v>
-      </c>
-      <c r="C32">
-        <v>4</v>
-      </c>
-      <c r="D32" s="17">
+      <c r="E35" s="20">
+        <v>24</v>
+      </c>
+      <c r="F35">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="G35" t="s">
+        <v>210</v>
+      </c>
+      <c r="H35" t="s">
+        <v>211</v>
+      </c>
+      <c r="I35" t="s">
+        <v>212</v>
+      </c>
+      <c r="J35" t="s">
+        <v>213</v>
+      </c>
+      <c r="K35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>10457</v>
+      </c>
+      <c r="B36" t="s">
+        <v>209</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>43988</v>
       </c>
-      <c r="E32" s="20">
-        <v>23</v>
-      </c>
-      <c r="F32">
-        <v>189.09</v>
-      </c>
-      <c r="G32" t="s">
-        <v>208</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="E36" s="20">
+        <v>25</v>
+      </c>
+      <c r="F36">
+        <v>11.57</v>
+      </c>
+      <c r="G36" t="s">
+        <v>210</v>
+      </c>
+      <c r="H36" t="s">
+        <v>211</v>
+      </c>
+      <c r="I36" t="s">
+        <v>212</v>
+      </c>
+      <c r="J36" t="s">
+        <v>213</v>
+      </c>
+      <c r="K36" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>10468</v>
+      </c>
+      <c r="B37" t="s">
         <v>209</v>
       </c>
-      <c r="I32" t="s">
-        <v>210</v>
-      </c>
-      <c r="J32" t="s">
-        <v>211</v>
-      </c>
-      <c r="K32" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>10456</v>
-      </c>
-      <c r="B33" t="s">
-        <v>227</v>
-      </c>
-      <c r="C33">
-        <v>8</v>
-      </c>
-      <c r="D33" s="17">
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>43987</v>
       </c>
-      <c r="E33" s="20">
-        <v>24</v>
-      </c>
-      <c r="F33">
-        <v>8.1199999999999992</v>
-      </c>
-      <c r="G33" t="s">
-        <v>228</v>
-      </c>
-      <c r="H33" t="s">
-        <v>229</v>
-      </c>
-      <c r="I33" t="s">
-        <v>230</v>
-      </c>
-      <c r="J33" t="s">
-        <v>231</v>
-      </c>
-      <c r="K33" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>10457</v>
-      </c>
-      <c r="B34" t="s">
-        <v>227</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34" s="17">
+      <c r="E37" s="20">
+        <v>26</v>
+      </c>
+      <c r="F37">
+        <v>44.12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>210</v>
+      </c>
+      <c r="H37" t="s">
+        <v>211</v>
+      </c>
+      <c r="I37" t="s">
+        <v>212</v>
+      </c>
+      <c r="J37" t="s">
+        <v>213</v>
+      </c>
+      <c r="K37" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>10488</v>
+      </c>
+      <c r="B38" t="s">
+        <v>184</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="D38" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>43986</v>
       </c>
-      <c r="E34" s="20">
-        <v>25</v>
-      </c>
-      <c r="F34">
-        <v>11.57</v>
-      </c>
-      <c r="G34" t="s">
-        <v>228</v>
-      </c>
-      <c r="H34" t="s">
-        <v>229</v>
-      </c>
-      <c r="I34" t="s">
-        <v>230</v>
-      </c>
-      <c r="J34" t="s">
-        <v>231</v>
-      </c>
-      <c r="K34" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>10468</v>
-      </c>
-      <c r="B35" t="s">
-        <v>227</v>
-      </c>
-      <c r="C35">
-        <v>3</v>
-      </c>
-      <c r="D35" s="17">
+      <c r="E38" s="20">
+        <v>27</v>
+      </c>
+      <c r="F38">
+        <v>4.93</v>
+      </c>
+      <c r="G38" t="s">
+        <v>185</v>
+      </c>
+      <c r="H38" t="s">
+        <v>186</v>
+      </c>
+      <c r="I38" t="s">
+        <v>187</v>
+      </c>
+      <c r="J38" t="s">
+        <v>188</v>
+      </c>
+      <c r="K38" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>10497</v>
+      </c>
+      <c r="B39" t="s">
+        <v>199</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+      <c r="D39" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>43985</v>
       </c>
-      <c r="E35" s="20">
-        <v>26</v>
-      </c>
-      <c r="F35">
-        <v>44.12</v>
-      </c>
-      <c r="G35" t="s">
-        <v>228</v>
-      </c>
-      <c r="H35" t="s">
-        <v>229</v>
-      </c>
-      <c r="I35" t="s">
-        <v>230</v>
-      </c>
-      <c r="J35" t="s">
-        <v>231</v>
-      </c>
-      <c r="K35" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>10488</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="E39" s="20">
+        <v>28</v>
+      </c>
+      <c r="F39">
+        <v>36.21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>200</v>
+      </c>
+      <c r="H39" t="s">
+        <v>201</v>
+      </c>
+      <c r="I39" t="s">
         <v>202</v>
       </c>
-      <c r="C36">
-        <v>8</v>
-      </c>
-      <c r="D36" s="17">
+      <c r="J39" t="s">
+        <v>203</v>
+      </c>
+      <c r="K39" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>10501</v>
+      </c>
+      <c r="B40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40">
+        <v>9</v>
+      </c>
+      <c r="D40" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>43984</v>
       </c>
-      <c r="E36" s="20">
-        <v>27</v>
-      </c>
-      <c r="F36">
-        <v>4.93</v>
-      </c>
-      <c r="G36" t="s">
-        <v>203</v>
-      </c>
-      <c r="H36" t="s">
-        <v>204</v>
-      </c>
-      <c r="I36" t="s">
-        <v>205</v>
-      </c>
-      <c r="J36" t="s">
-        <v>206</v>
-      </c>
-      <c r="K36" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>10497</v>
-      </c>
-      <c r="B37" t="s">
-        <v>217</v>
-      </c>
-      <c r="C37">
-        <v>7</v>
-      </c>
-      <c r="D37" s="17">
+      <c r="E40" s="20">
+        <v>29</v>
+      </c>
+      <c r="F40">
+        <v>8.85</v>
+      </c>
+      <c r="G40" t="s">
+        <v>99</v>
+      </c>
+      <c r="H40" t="s">
+        <v>219</v>
+      </c>
+      <c r="I40" t="s">
+        <v>220</v>
+      </c>
+      <c r="J40" t="s">
+        <v>221</v>
+      </c>
+      <c r="K40" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>10506</v>
+      </c>
+      <c r="B41" t="s">
+        <v>209</v>
+      </c>
+      <c r="C41">
+        <v>9</v>
+      </c>
+      <c r="D41" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>43983</v>
       </c>
-      <c r="E37" s="20">
-        <v>28</v>
-      </c>
-      <c r="F37">
-        <v>36.21</v>
-      </c>
-      <c r="G37" t="s">
-        <v>218</v>
-      </c>
-      <c r="H37" t="s">
-        <v>219</v>
-      </c>
-      <c r="I37" t="s">
-        <v>220</v>
-      </c>
-      <c r="J37" t="s">
-        <v>221</v>
-      </c>
-      <c r="K37" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>10501</v>
-      </c>
-      <c r="B38" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38">
-        <v>9</v>
-      </c>
-      <c r="D38" s="17">
+      <c r="E41" s="20">
+        <v>30</v>
+      </c>
+      <c r="F41">
+        <v>21.19</v>
+      </c>
+      <c r="G41" t="s">
+        <v>210</v>
+      </c>
+      <c r="H41" t="s">
+        <v>211</v>
+      </c>
+      <c r="I41" t="s">
+        <v>212</v>
+      </c>
+      <c r="J41" t="s">
+        <v>213</v>
+      </c>
+      <c r="K41" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>10508</v>
+      </c>
+      <c r="B42" t="s">
+        <v>179</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>43982</v>
       </c>
-      <c r="E38" s="20">
-        <v>29</v>
-      </c>
-      <c r="F38">
-        <v>8.85</v>
-      </c>
-      <c r="G38" t="s">
-        <v>105</v>
-      </c>
-      <c r="H38" t="s">
-        <v>237</v>
-      </c>
-      <c r="I38" t="s">
-        <v>238</v>
-      </c>
-      <c r="J38" t="s">
-        <v>239</v>
-      </c>
-      <c r="K38" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>10506</v>
-      </c>
-      <c r="B39" t="s">
-        <v>227</v>
-      </c>
-      <c r="C39">
-        <v>9</v>
-      </c>
-      <c r="D39" s="17">
+      <c r="E42" s="20">
+        <v>31</v>
+      </c>
+      <c r="F42">
+        <v>4.99</v>
+      </c>
+      <c r="G42" t="s">
+        <v>180</v>
+      </c>
+      <c r="H42" t="s">
+        <v>181</v>
+      </c>
+      <c r="I42" t="s">
+        <v>182</v>
+      </c>
+      <c r="J42" t="s">
+        <v>183</v>
+      </c>
+      <c r="K42" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>10509</v>
+      </c>
+      <c r="B43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>43981</v>
       </c>
-      <c r="E39" s="20">
-        <v>30</v>
-      </c>
-      <c r="F39">
-        <v>21.19</v>
-      </c>
-      <c r="G39" t="s">
-        <v>228</v>
-      </c>
-      <c r="H39" t="s">
-        <v>229</v>
-      </c>
-      <c r="I39" t="s">
-        <v>230</v>
-      </c>
-      <c r="J39" t="s">
-        <v>231</v>
-      </c>
-      <c r="K39" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>10508</v>
-      </c>
-      <c r="B40" t="s">
-        <v>197</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" s="17">
+      <c r="E43" s="20">
+        <v>32</v>
+      </c>
+      <c r="F43">
+        <v>0.15</v>
+      </c>
+      <c r="G43" t="s">
+        <v>99</v>
+      </c>
+      <c r="H43" t="s">
+        <v>219</v>
+      </c>
+      <c r="I43" t="s">
+        <v>220</v>
+      </c>
+      <c r="J43" t="s">
+        <v>221</v>
+      </c>
+      <c r="K43" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>10513</v>
+      </c>
+      <c r="B44" t="s">
+        <v>204</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+      <c r="D44" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>43981</v>
+      </c>
+      <c r="E44" s="20">
+        <v>32</v>
+      </c>
+      <c r="F44">
+        <v>105.65</v>
+      </c>
+      <c r="G44" t="s">
+        <v>205</v>
+      </c>
+      <c r="H44" t="s">
+        <v>206</v>
+      </c>
+      <c r="I44" t="s">
+        <v>207</v>
+      </c>
+      <c r="J44" t="s">
+        <v>208</v>
+      </c>
+      <c r="K44" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>10515</v>
+      </c>
+      <c r="B45" t="s">
+        <v>189</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>43981</v>
+      </c>
+      <c r="E45" s="20">
+        <v>32</v>
+      </c>
+      <c r="F45">
+        <v>204.47</v>
+      </c>
+      <c r="G45" t="s">
+        <v>190</v>
+      </c>
+      <c r="H45" t="s">
+        <v>191</v>
+      </c>
+      <c r="I45" t="s">
+        <v>192</v>
+      </c>
+      <c r="J45" t="s">
+        <v>193</v>
+      </c>
+      <c r="K45" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>10522</v>
+      </c>
+      <c r="B46" t="s">
+        <v>199</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>43981</v>
+      </c>
+      <c r="E46" s="20">
+        <v>32</v>
+      </c>
+      <c r="F46">
+        <v>45.33</v>
+      </c>
+      <c r="G46" t="s">
+        <v>200</v>
+      </c>
+      <c r="H46" t="s">
+        <v>201</v>
+      </c>
+      <c r="I46" t="s">
+        <v>202</v>
+      </c>
+      <c r="J46" t="s">
+        <v>203</v>
+      </c>
+      <c r="K46" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>10527</v>
+      </c>
+      <c r="B47" t="s">
+        <v>189</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+      <c r="D47" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>43980</v>
       </c>
-      <c r="E40" s="20">
-        <v>31</v>
-      </c>
-      <c r="F40">
-        <v>4.99</v>
-      </c>
-      <c r="G40" t="s">
-        <v>198</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="E47" s="20">
+        <v>33</v>
+      </c>
+      <c r="F47">
+        <v>41.9</v>
+      </c>
+      <c r="G47" t="s">
+        <v>190</v>
+      </c>
+      <c r="H47" t="s">
+        <v>191</v>
+      </c>
+      <c r="I47" t="s">
+        <v>192</v>
+      </c>
+      <c r="J47" t="s">
+        <v>193</v>
+      </c>
+      <c r="K47" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>10534</v>
+      </c>
+      <c r="B48" t="s">
         <v>199</v>
       </c>
-      <c r="I40" t="s">
-        <v>200</v>
-      </c>
-      <c r="J40" t="s">
-        <v>201</v>
-      </c>
-      <c r="K40" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>10509</v>
-      </c>
-      <c r="B41" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41">
-        <v>4</v>
-      </c>
-      <c r="D41" s="17">
+      <c r="C48">
+        <v>8</v>
+      </c>
+      <c r="D48" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>43979</v>
       </c>
-      <c r="E41" s="20">
-        <v>32</v>
-      </c>
-      <c r="F41">
-        <v>0.15</v>
-      </c>
-      <c r="G41" t="s">
-        <v>105</v>
-      </c>
-      <c r="H41" t="s">
-        <v>237</v>
-      </c>
-      <c r="I41" t="s">
-        <v>238</v>
-      </c>
-      <c r="J41" t="s">
-        <v>239</v>
-      </c>
-      <c r="K41" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>10513</v>
-      </c>
-      <c r="B42" t="s">
-        <v>222</v>
-      </c>
-      <c r="C42">
-        <v>7</v>
-      </c>
-      <c r="D42" s="17">
-        <f t="shared" ca="1" si="0"/>
-        <v>43979</v>
-      </c>
-      <c r="E42" s="20">
-        <v>32</v>
-      </c>
-      <c r="F42">
-        <v>105.65</v>
-      </c>
-      <c r="G42" t="s">
-        <v>223</v>
-      </c>
-      <c r="H42" t="s">
-        <v>224</v>
-      </c>
-      <c r="I42" t="s">
-        <v>225</v>
-      </c>
-      <c r="J42" t="s">
-        <v>226</v>
-      </c>
-      <c r="K42" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>10515</v>
-      </c>
-      <c r="B43" t="s">
-        <v>207</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="D43" s="17">
-        <f t="shared" ca="1" si="0"/>
-        <v>43979</v>
-      </c>
-      <c r="E43" s="20">
-        <v>32</v>
-      </c>
-      <c r="F43">
-        <v>204.47</v>
-      </c>
-      <c r="G43" t="s">
-        <v>208</v>
-      </c>
-      <c r="H43" t="s">
-        <v>209</v>
-      </c>
-      <c r="I43" t="s">
-        <v>210</v>
-      </c>
-      <c r="J43" t="s">
-        <v>211</v>
-      </c>
-      <c r="K43" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>10522</v>
-      </c>
-      <c r="B44" t="s">
-        <v>217</v>
-      </c>
-      <c r="C44">
-        <v>4</v>
-      </c>
-      <c r="D44" s="17">
-        <f t="shared" ca="1" si="0"/>
-        <v>43979</v>
-      </c>
-      <c r="E44" s="20">
-        <v>32</v>
-      </c>
-      <c r="F44">
-        <v>45.33</v>
-      </c>
-      <c r="G44" t="s">
-        <v>218</v>
-      </c>
-      <c r="H44" t="s">
-        <v>219</v>
-      </c>
-      <c r="I44" t="s">
-        <v>220</v>
-      </c>
-      <c r="J44" t="s">
-        <v>221</v>
-      </c>
-      <c r="K44" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>10527</v>
-      </c>
-      <c r="B45" t="s">
-        <v>207</v>
-      </c>
-      <c r="C45">
-        <v>7</v>
-      </c>
-      <c r="D45" s="17">
+      <c r="E48" s="20">
+        <v>34</v>
+      </c>
+      <c r="F48">
+        <v>27.94</v>
+      </c>
+      <c r="G48" t="s">
+        <v>200</v>
+      </c>
+      <c r="H48" t="s">
+        <v>201</v>
+      </c>
+      <c r="I48" t="s">
+        <v>202</v>
+      </c>
+      <c r="J48" t="s">
+        <v>203</v>
+      </c>
+      <c r="K48" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>10536</v>
+      </c>
+      <c r="B49" t="s">
+        <v>199</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>43978</v>
       </c>
-      <c r="E45" s="20">
-        <v>33</v>
-      </c>
-      <c r="F45">
-        <v>41.9</v>
-      </c>
-      <c r="G45" t="s">
-        <v>208</v>
-      </c>
-      <c r="H45" t="s">
-        <v>209</v>
-      </c>
-      <c r="I45" t="s">
-        <v>210</v>
-      </c>
-      <c r="J45" t="s">
-        <v>211</v>
-      </c>
-      <c r="K45" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>10534</v>
-      </c>
-      <c r="B46" t="s">
-        <v>217</v>
-      </c>
-      <c r="C46">
-        <v>8</v>
-      </c>
-      <c r="D46" s="17">
+      <c r="E49" s="20">
+        <v>35</v>
+      </c>
+      <c r="F49">
+        <v>58.88</v>
+      </c>
+      <c r="G49" t="s">
+        <v>200</v>
+      </c>
+      <c r="H49" t="s">
+        <v>201</v>
+      </c>
+      <c r="I49" t="s">
+        <v>202</v>
+      </c>
+      <c r="J49" t="s">
+        <v>203</v>
+      </c>
+      <c r="K49" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>10540</v>
+      </c>
+      <c r="B50" t="s">
+        <v>189</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>43977</v>
       </c>
-      <c r="E46" s="20">
-        <v>34</v>
-      </c>
-      <c r="F46">
-        <v>27.94</v>
-      </c>
-      <c r="G46" t="s">
-        <v>218</v>
-      </c>
-      <c r="H46" t="s">
-        <v>219</v>
-      </c>
-      <c r="I46" t="s">
-        <v>220</v>
-      </c>
-      <c r="J46" t="s">
-        <v>221</v>
-      </c>
-      <c r="K46" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>10536</v>
-      </c>
-      <c r="B47" t="s">
-        <v>217</v>
-      </c>
-      <c r="C47">
-        <v>3</v>
-      </c>
-      <c r="D47" s="17">
-        <f t="shared" ca="1" si="0"/>
-        <v>43976</v>
-      </c>
-      <c r="E47" s="20">
-        <v>35</v>
-      </c>
-      <c r="F47">
-        <v>58.88</v>
-      </c>
-      <c r="G47" t="s">
-        <v>218</v>
-      </c>
-      <c r="H47" t="s">
-        <v>219</v>
-      </c>
-      <c r="I47" t="s">
-        <v>220</v>
-      </c>
-      <c r="J47" t="s">
-        <v>221</v>
-      </c>
-      <c r="K47" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>10540</v>
-      </c>
-      <c r="B48" t="s">
-        <v>207</v>
-      </c>
-      <c r="C48">
-        <v>3</v>
-      </c>
-      <c r="D48" s="17">
-        <f t="shared" ca="1" si="0"/>
-        <v>43975</v>
-      </c>
-      <c r="E48" s="20">
+      <c r="E50" s="20">
         <v>36</v>
       </c>
-      <c r="F48">
+      <c r="F50">
         <v>1007.64</v>
       </c>
-      <c r="G48" t="s">
-        <v>208</v>
-      </c>
-      <c r="H48" t="s">
-        <v>209</v>
-      </c>
-      <c r="I48" t="s">
-        <v>210</v>
-      </c>
-      <c r="J48" t="s">
-        <v>211</v>
-      </c>
-      <c r="K48" t="s">
-        <v>196</v>
+      <c r="G50" t="s">
+        <v>190</v>
+      </c>
+      <c r="H50" t="s">
+        <v>191</v>
+      </c>
+      <c r="I50" t="s">
+        <v>192</v>
+      </c>
+      <c r="J50" t="s">
+        <v>193</v>
+      </c>
+      <c r="K50" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:K48" xr:uid="{7F8E708A-1419-4AD4-918D-15DE39F3669B}">
-    <filterColumn colId="3">
-      <dynamicFilter type="thisWeek" val="44010" maxVal="44017"/>
-    </filterColumn>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDFDDCC-54D6-4761-9E43-F4957FEFB236}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" t="e">
-        <f>B4/B3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C5" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B5)</f>
-        <v>=B4/B3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" t="str">
-        <f>IFERROR(B4/B3,"Invalid")</f>
-        <v>Invalid</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" ref="C6:C7" ca="1" si="0">_xlfn.FORMULATEXT(B6)</f>
-        <v>=IFERROR(B4/B3,"Invalid")</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7">
-        <f>IFERROR(B4/B3,-1)</f>
-        <v>-1</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>=IFERROR(B4/B3,-1)</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <autoFilter ref="A5:K50" xr:uid="{7F8E708A-1419-4AD4-918D-15DE39F3669B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4757,12 +4660,12 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -4776,16 +4679,16 @@
         <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -4805,17 +4708,17 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -4826,9 +4729,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2B972A-A0A7-4944-971E-3D3D1881977E}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4837,31 +4742,59 @@
     <col min="3" max="3" width="10.5546875" style="5" customWidth="1"/>
     <col min="4" max="4" width="10.21875" customWidth="1"/>
     <col min="5" max="5" width="15.88671875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H2" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+      <c r="H3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10508</v>
       </c>
@@ -4878,8 +4811,24 @@
         <f>Table3[[#This Row],[UnitPrice]]*Table3[[#This Row],[Quantity]]</f>
         <v>180</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>10508</v>
+      </c>
+      <c r="I4">
+        <v>39</v>
+      </c>
+      <c r="J4" s="5">
+        <v>18</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4" s="5">
+        <f>Table33[[#This Row],[UnitPrice]]*Table33[[#This Row],[Quantity]]</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10521</v>
       </c>
@@ -4896,8 +4845,24 @@
         <f>Table3[[#This Row],[UnitPrice]]*Table3[[#This Row],[Quantity]]</f>
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>10521</v>
+      </c>
+      <c r="I5">
+        <v>35</v>
+      </c>
+      <c r="J5" s="5">
+        <v>18</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5" s="5">
+        <f>Table33[[#This Row],[UnitPrice]]*Table33[[#This Row],[Quantity]]</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10530</v>
       </c>
@@ -4914,8 +4879,24 @@
         <f>Table3[[#This Row],[UnitPrice]]*Table3[[#This Row],[Quantity]]</f>
         <v>900</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>10530</v>
+      </c>
+      <c r="I6">
+        <v>76</v>
+      </c>
+      <c r="J6" s="5">
+        <v>18</v>
+      </c>
+      <c r="K6">
+        <v>50</v>
+      </c>
+      <c r="L6" s="5">
+        <f>Table33[[#This Row],[UnitPrice]]*Table33[[#This Row],[Quantity]]</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10546</v>
       </c>
@@ -4932,8 +4913,24 @@
         <f>Table3[[#This Row],[UnitPrice]]*Table3[[#This Row],[Quantity]]</f>
         <v>540</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>10546</v>
+      </c>
+      <c r="I7">
+        <v>35</v>
+      </c>
+      <c r="J7" s="5">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>30</v>
+      </c>
+      <c r="L7" s="5">
+        <f>Table33[[#This Row],[UnitPrice]]*Table33[[#This Row],[Quantity]]</f>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10553</v>
       </c>
@@ -4950,8 +4947,24 @@
         <f>Table3[[#This Row],[UnitPrice]]*Table3[[#This Row],[Quantity]]</f>
         <v>108</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>10553</v>
+      </c>
+      <c r="I8">
+        <v>35</v>
+      </c>
+      <c r="J8" s="5">
+        <v>18</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="L8" s="5">
+        <f>Table33[[#This Row],[UnitPrice]]*Table33[[#This Row],[Quantity]]</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10566</v>
       </c>
@@ -4968,8 +4981,24 @@
         <f>Table3[[#This Row],[UnitPrice]]*Table3[[#This Row],[Quantity]]</f>
         <v>180</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>10566</v>
+      </c>
+      <c r="I9">
+        <v>76</v>
+      </c>
+      <c r="J9" s="5">
+        <v>18</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9" s="5">
+        <f>Table33[[#This Row],[UnitPrice]]*Table33[[#This Row],[Quantity]]</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10569</v>
       </c>
@@ -4986,8 +5015,24 @@
         <f>Table3[[#This Row],[UnitPrice]]*Table3[[#This Row],[Quantity]]</f>
         <v>540</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>10569</v>
+      </c>
+      <c r="I10">
+        <v>76</v>
+      </c>
+      <c r="J10" s="5">
+        <v>18</v>
+      </c>
+      <c r="K10">
+        <v>30</v>
+      </c>
+      <c r="L10" s="5">
+        <f>Table33[[#This Row],[UnitPrice]]*Table33[[#This Row],[Quantity]]</f>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10575</v>
       </c>
@@ -5004,8 +5049,24 @@
         <f>Table3[[#This Row],[UnitPrice]]*Table3[[#This Row],[Quantity]]</f>
         <v>180</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <v>10575</v>
+      </c>
+      <c r="I11">
+        <v>76</v>
+      </c>
+      <c r="J11" s="5">
+        <v>18</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11" s="5">
+        <f>Table33[[#This Row],[UnitPrice]]*Table33[[#This Row],[Quantity]]</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10576</v>
       </c>
@@ -5022,8 +5083,24 @@
         <f>Table3[[#This Row],[UnitPrice]]*Table3[[#This Row],[Quantity]]</f>
         <v>180</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <v>10576</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5">
+        <v>18</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12" s="5">
+        <f>Table33[[#This Row],[UnitPrice]]*Table33[[#This Row],[Quantity]]</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10577</v>
       </c>
@@ -5040,8 +5117,24 @@
         <f>Table3[[#This Row],[UnitPrice]]*Table3[[#This Row],[Quantity]]</f>
         <v>180</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <v>10577</v>
+      </c>
+      <c r="I13">
+        <v>39</v>
+      </c>
+      <c r="J13" s="5">
+        <v>18</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+      <c r="L13" s="5">
+        <f>Table33[[#This Row],[UnitPrice]]*Table33[[#This Row],[Quantity]]</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10578</v>
       </c>
@@ -5058,8 +5151,24 @@
         <f>Table3[[#This Row],[UnitPrice]]*Table3[[#This Row],[Quantity]]</f>
         <v>360</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>10578</v>
+      </c>
+      <c r="I14">
+        <v>35</v>
+      </c>
+      <c r="J14" s="5">
+        <v>18</v>
+      </c>
+      <c r="K14">
+        <v>20</v>
+      </c>
+      <c r="L14" s="5">
+        <f>Table33[[#This Row],[UnitPrice]]*Table33[[#This Row],[Quantity]]</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10582</v>
       </c>
@@ -5076,8 +5185,24 @@
         <f>Table3[[#This Row],[UnitPrice]]*Table3[[#This Row],[Quantity]]</f>
         <v>252</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <v>10582</v>
+      </c>
+      <c r="I15">
+        <v>76</v>
+      </c>
+      <c r="J15" s="5">
+        <v>18</v>
+      </c>
+      <c r="K15">
+        <v>14</v>
+      </c>
+      <c r="L15" s="5">
+        <f>Table33[[#This Row],[UnitPrice]]*Table33[[#This Row],[Quantity]]</f>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10587</v>
       </c>
@@ -5094,8 +5219,24 @@
         <f>Table3[[#This Row],[UnitPrice]]*Table3[[#This Row],[Quantity]]</f>
         <v>360</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <v>10587</v>
+      </c>
+      <c r="I16">
+        <v>35</v>
+      </c>
+      <c r="J16" s="5">
+        <v>18</v>
+      </c>
+      <c r="K16">
+        <v>20</v>
+      </c>
+      <c r="L16" s="5">
+        <f>Table33[[#This Row],[UnitPrice]]*Table33[[#This Row],[Quantity]]</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10589</v>
       </c>
@@ -5112,8 +5253,24 @@
         <f>Table3[[#This Row],[UnitPrice]]*Table3[[#This Row],[Quantity]]</f>
         <v>72</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <v>10589</v>
+      </c>
+      <c r="I17">
+        <v>35</v>
+      </c>
+      <c r="J17" s="5">
+        <v>18</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17" s="5">
+        <f>Table33[[#This Row],[UnitPrice]]*Table33[[#This Row],[Quantity]]</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10590</v>
       </c>
@@ -5130,8 +5287,24 @@
         <f>Table3[[#This Row],[UnitPrice]]*Table3[[#This Row],[Quantity]]</f>
         <v>360</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>10590</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5">
+        <v>18</v>
+      </c>
+      <c r="K18">
+        <v>20</v>
+      </c>
+      <c r="L18" s="5">
+        <f>Table33[[#This Row],[UnitPrice]]*Table33[[#This Row],[Quantity]]</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10609</v>
       </c>
@@ -5148,8 +5321,24 @@
         <f>Table3[[#This Row],[UnitPrice]]*Table3[[#This Row],[Quantity]]</f>
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <v>10609</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5">
+        <v>18</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19" s="5">
+        <f>Table33[[#This Row],[UnitPrice]]*Table33[[#This Row],[Quantity]]</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>10611</v>
       </c>
@@ -5166,8 +5355,24 @@
         <f>Table3[[#This Row],[UnitPrice]]*Table3[[#This Row],[Quantity]]</f>
         <v>108</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <v>10611</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5">
+        <v>18</v>
+      </c>
+      <c r="K20">
+        <v>6</v>
+      </c>
+      <c r="L20" s="5">
+        <f>Table33[[#This Row],[UnitPrice]]*Table33[[#This Row],[Quantity]]</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>10612</v>
       </c>
@@ -5184,8 +5389,24 @@
         <f>Table3[[#This Row],[UnitPrice]]*Table3[[#This Row],[Quantity]]</f>
         <v>720</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <v>10612</v>
+      </c>
+      <c r="I21">
+        <v>76</v>
+      </c>
+      <c r="J21" s="5">
+        <v>18</v>
+      </c>
+      <c r="K21">
+        <v>40</v>
+      </c>
+      <c r="L21" s="5">
+        <f>Table33[[#This Row],[UnitPrice]]*Table33[[#This Row],[Quantity]]</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>10614</v>
       </c>
@@ -5202,8 +5423,24 @@
         <f>Table3[[#This Row],[UnitPrice]]*Table3[[#This Row],[Quantity]]</f>
         <v>90</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <v>10614</v>
+      </c>
+      <c r="I22">
+        <v>39</v>
+      </c>
+      <c r="J22" s="5">
+        <v>18</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22" s="5">
+        <f>Table33[[#This Row],[UnitPrice]]*Table33[[#This Row],[Quantity]]</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>10628</v>
       </c>
@@ -5220,8 +5457,24 @@
         <f>Table3[[#This Row],[UnitPrice]]*Table3[[#This Row],[Quantity]]</f>
         <v>450</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <v>10628</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5">
+        <v>18</v>
+      </c>
+      <c r="K23">
+        <v>25</v>
+      </c>
+      <c r="L23" s="5">
+        <f>Table33[[#This Row],[UnitPrice]]*Table33[[#This Row],[Quantity]]</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>10630</v>
       </c>
@@ -5238,47 +5491,71 @@
         <f>Table3[[#This Row],[UnitPrice]]*Table3[[#This Row],[Quantity]]</f>
         <v>630</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <v>10630</v>
+      </c>
+      <c r="I24">
+        <v>76</v>
+      </c>
+      <c r="J24" s="5">
+        <v>18</v>
+      </c>
+      <c r="K24">
+        <v>35</v>
+      </c>
+      <c r="L24" s="5">
+        <f>Table33[[#This Row],[UnitPrice]]*Table33[[#This Row],[Quantity]]</f>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C25" s="20"/>
       <c r="E25" s="29">
         <f>SUBTOTAL(109,Table3[Sales])</f>
         <v>6498</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>141</v>
+      </c>
+      <c r="J25" s="20"/>
+      <c r="L25" s="29">
+        <f>SUBTOTAL(109,Table33[Sales])</f>
+        <v>6498</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D27" s="30"/>
       <c r="E27" s="31"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D28" s="30"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C31" s="5">
         <f>MIN(Table3[Sales])</f>
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C32" s="5">
         <f>MAX(Table3[Sales])</f>
@@ -5287,7 +5564,7 @@
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C34" s="5">
         <f>C31+ (0.67 * (C32-C31))</f>
@@ -5296,7 +5573,7 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C35" s="5">
         <f>C31+ (0.33 * (C32-C31))</f>
@@ -5305,17 +5582,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:E24">
-    <cfRule type="iconSet" priority="1">
+    <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Signs">
         <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
+        <cfvo type="percent" val="20"/>
+        <cfvo type="percent" val="50"/>
       </iconSet>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
@@ -5339,26 +5616,26 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="32" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="32" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="32" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -5383,20 +5660,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -5404,7 +5681,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B6">
         <v>2016</v>
@@ -5415,7 +5692,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B7">
         <v>2016</v>
@@ -5426,7 +5703,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B8">
         <v>2017</v>
@@ -5437,7 +5714,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B9">
         <v>2017</v>
@@ -5459,7 +5736,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B11">
         <v>2016</v>
@@ -5492,7 +5769,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B14">
         <v>2017</v>
@@ -5503,7 +5780,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B15">
         <v>2017</v>
@@ -5514,7 +5791,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B16">
         <v>2017</v>
@@ -5536,7 +5813,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B18">
         <v>2017</v>
@@ -5547,7 +5824,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B19">
         <v>2016</v>
@@ -5558,7 +5835,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B20">
         <v>2016</v>
@@ -5569,7 +5846,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B21">
         <v>2016</v>
@@ -5580,7 +5857,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B22">
         <v>2016</v>
@@ -5602,7 +5879,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B24">
         <v>2017</v>
@@ -5613,7 +5890,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B25">
         <v>2016</v>
@@ -5635,7 +5912,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B27">
         <v>2016</v>
@@ -5646,7 +5923,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B28">
         <v>2017</v>
@@ -5657,7 +5934,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B29">
         <v>2017</v>
@@ -5668,488 +5945,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A5:C5" xr:uid="{5AF8A25E-677C-4C43-B7A1-E3B090CAB2A9}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089C6883-D017-4BB2-8339-3903CE0CCFBC}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBD341C-AA08-4495-BC57-877B9E5E77B4}">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F8" t="s">
-        <v>171</v>
-      </c>
-      <c r="G8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F19030E-4C90-4727-9824-D91E9EB4CF16}">
-  <dimension ref="A1:B27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B3" s="13">
-        <f t="array" ref="B3">SUM(LEN(A6:A25))</f>
-        <v>329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <f>LEN(A6)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <f t="shared" ref="B7:B25" si="0">LEN(A7)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="40"/>
-      <c r="B26" s="41">
-        <f>SUM(B6:B25)</f>
-        <v>329</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6158,7 +5953,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B9015A-F984-4DAB-B7B6-0DAD1D7D3171}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6411,454 +6208,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A57EA84-50CE-4F65-9E70-63703AC99712}">
-  <dimension ref="A1:E28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" s="38">
-        <f t="array" ref="B4">SUM(C7:C27*D7:D27)</f>
-        <v>6498</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>10508</v>
-      </c>
-      <c r="B7">
-        <v>39</v>
-      </c>
-      <c r="C7">
-        <v>18</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <f>C7*D7</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>10521</v>
-      </c>
-      <c r="B8">
-        <v>35</v>
-      </c>
-      <c r="C8">
-        <v>18</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <f t="shared" ref="E8:E27" si="0">C8*D8</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>10530</v>
-      </c>
-      <c r="B9">
-        <v>76</v>
-      </c>
-      <c r="C9">
-        <v>18</v>
-      </c>
-      <c r="D9">
-        <v>50</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>10546</v>
-      </c>
-      <c r="B10">
-        <v>35</v>
-      </c>
-      <c r="C10">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>30</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>540</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10553</v>
-      </c>
-      <c r="B11">
-        <v>35</v>
-      </c>
-      <c r="C11">
-        <v>18</v>
-      </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10566</v>
-      </c>
-      <c r="B12">
-        <v>76</v>
-      </c>
-      <c r="C12">
-        <v>18</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>10569</v>
-      </c>
-      <c r="B13">
-        <v>76</v>
-      </c>
-      <c r="C13">
-        <v>18</v>
-      </c>
-      <c r="D13">
-        <v>30</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>540</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>10575</v>
-      </c>
-      <c r="B14">
-        <v>76</v>
-      </c>
-      <c r="C14">
-        <v>18</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>10576</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>18</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>10577</v>
-      </c>
-      <c r="B16">
-        <v>39</v>
-      </c>
-      <c r="C16">
-        <v>18</v>
-      </c>
-      <c r="D16">
-        <v>10</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>10578</v>
-      </c>
-      <c r="B17">
-        <v>35</v>
-      </c>
-      <c r="C17">
-        <v>18</v>
-      </c>
-      <c r="D17">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>10582</v>
-      </c>
-      <c r="B18">
-        <v>76</v>
-      </c>
-      <c r="C18">
-        <v>18</v>
-      </c>
-      <c r="D18">
-        <v>14</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>252</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>10587</v>
-      </c>
-      <c r="B19">
-        <v>35</v>
-      </c>
-      <c r="C19">
-        <v>18</v>
-      </c>
-      <c r="D19">
-        <v>20</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>10589</v>
-      </c>
-      <c r="B20">
-        <v>35</v>
-      </c>
-      <c r="C20">
-        <v>18</v>
-      </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>10590</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>18</v>
-      </c>
-      <c r="D21">
-        <v>20</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>10609</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>18</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>10611</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>18</v>
-      </c>
-      <c r="D23">
-        <v>6</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>10612</v>
-      </c>
-      <c r="B24">
-        <v>76</v>
-      </c>
-      <c r="C24">
-        <v>18</v>
-      </c>
-      <c r="D24">
-        <v>40</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>720</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>10614</v>
-      </c>
-      <c r="B25">
-        <v>39</v>
-      </c>
-      <c r="C25">
-        <v>18</v>
-      </c>
-      <c r="D25">
-        <v>5</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>10628</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>18</v>
-      </c>
-      <c r="D26">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>10630</v>
-      </c>
-      <c r="B27">
-        <v>76</v>
-      </c>
-      <c r="C27">
-        <v>18</v>
-      </c>
-      <c r="D27">
-        <v>35</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>630</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E28" s="38">
-        <f>SUM(E7:E27)</f>
-        <v>6498</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB8C815-382B-45E6-8FAE-05D9FF6A9745}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6885,90 +6241,90 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C4" s="15">
-        <v>4827</v>
+        <v>5268</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C5" s="15">
-        <v>595</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C6" s="15">
-        <v>8921</v>
+        <v>5815</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="15">
-        <v>3707</v>
+        <v>7204</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="15">
-        <v>3415</v>
+        <v>7172</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="15">
-        <v>9755</v>
+        <v>11</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C10" s="15">
-        <v>2070</v>
+        <v>5904</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C11" s="15">
-        <v>4225</v>
+        <v>6201</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -6976,10 +6332,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C12" s="15">
-        <v>8944</v>
+        <v>5594</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -6987,10 +6343,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="C13" s="15">
+        <v>4095</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -6998,10 +6354,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C14" s="15">
-        <v>5594</v>
+        <v>8396</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -7009,101 +6365,104 @@
         <v>9</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C15" s="15">
-        <v>5815</v>
+        <v>8944</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C16" s="15">
-        <v>5904</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C17" s="15">
-        <v>4095</v>
+        <v>4225</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C18" s="15">
-        <v>8396</v>
+        <v>9755</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C19" s="15">
-        <v>5268</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C20" s="15">
-        <v>2202</v>
+        <v>4827</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C21" s="15">
-        <v>6201</v>
+        <v>595</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="15">
-        <v>7204</v>
+        <v>8921</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="16">
-        <v>7172</v>
+        <v>3707</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C23">
+    <sortCondition ref="A4"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7125,73 +6484,73 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -7202,10 +6561,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A20234-A08D-4DD5-A98F-AA354501E784}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7222,102 +6581,93 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>53</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="D10" t="s">
         <v>44</v>
@@ -7325,13 +6675,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
@@ -7339,27 +6689,27 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
         <v>32</v>
@@ -7367,15 +6717,29 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>51</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>52</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>31</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7386,130 +6750,153 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31109D66-567A-46A4-AB34-8880A166B034}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>256</v>
+      </c>
+      <c r="C3" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>264</v>
+        <v>243</v>
+      </c>
+      <c r="B5">
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>263</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>262</v>
+        <v>243</v>
+      </c>
+      <c r="B6" s="30">
+        <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="B7">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>261</v>
-      </c>
-      <c r="B8" s="30">
-        <v>0.05</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>261</v>
-      </c>
-      <c r="B9">
-        <v>4.25</v>
+        <v>245</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>260</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="C11" t="e">
-        <f>IF(B11,"true","false")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>260</v>
-      </c>
-      <c r="B12" t="b">
-        <v>0</v>
-      </c>
-      <c r="C12" t="str">
-        <f>IF(B12,"true","false")</f>
-        <v>false</v>
+        <v>253</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" t="str">
+        <f>IF(B13,"true","false")</f>
+        <v>true</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="17">
-        <v>43636</v>
-      </c>
-      <c r="C14" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="45">
-        <v>43636</v>
+        <v>242</v>
+      </c>
+      <c r="B14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" t="str">
+        <f>IF(B14,"true","false")</f>
+        <v>false</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>258</v>
-      </c>
-      <c r="B16" s="44">
+        <v>59</v>
+      </c>
+      <c r="B16" s="17">
+        <v>43636</v>
+      </c>
+      <c r="C16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="40">
+        <v>43636</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>240</v>
+      </c>
+      <c r="B18" s="39">
         <v>43636.024305555555</v>
       </c>
-      <c r="C16" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="43"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="42"/>
+      <c r="C18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>250</v>
+      </c>
+      <c r="B19" s="43">
+        <v>44013.436805555553</v>
+      </c>
+      <c r="C19" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="38"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7518,9 +6905,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0074A1-3616-4ED8-92FE-F8CAE4A69905}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7535,85 +6924,93 @@
         <v>62</v>
       </c>
     </row>
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="12"/>
+    </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="42" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>59</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>69</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>70</v>
       </c>
-      <c r="D3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" t="s">
         <v>68</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F5" t="s">
         <v>63</v>
       </c>
-      <c r="G3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
-        <v>43160</v>
-      </c>
-      <c r="B4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="20" t="str">
-        <f>IF(G4="Invoice","I", IF(G4="Receipt","R","?")) &amp; TEXT(MONTH(A4),"00") &amp; "-" &amp; TEXT(H4,"000")</f>
-        <v>I03-001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
-        <v>43192</v>
-      </c>
       <c r="G5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5" s="20" t="str">
-        <f t="shared" ref="I5:I6" si="0">IF(G5="Invoice","I", IF(G5="Receipt","R","?")) &amp; TEXT(MONTH(A5),"00") &amp; "-" &amp; TEXT(H5,"000")</f>
-        <v>R04-004</v>
+        <v>121</v>
+      </c>
+      <c r="H5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I5" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
+        <v>43160</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="20" t="str">
+        <f>IF(G6="Invoice","I", IF(G6="Receipt","R","?")) &amp; TEXT(MONTH(A6),"00") &amp; "-" &amp; TEXT(H6,"000")</f>
+        <v>I03-001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="17">
+        <v>43192</v>
+      </c>
+      <c r="G7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" s="20" t="str">
+        <f t="shared" ref="I7:I8" si="0">IF(G7="Invoice","I", IF(G7="Receipt","R","?")) &amp; TEXT(MONTH(A7),"00") &amp; "-" &amp; TEXT(H7,"000")</f>
+        <v>R04-004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="17">
         <v>43223</v>
       </c>
-      <c r="I6" s="20" t="str">
+      <c r="I8" s="20" t="str">
         <f t="shared" si="0"/>
         <v>?05-000</v>
       </c>
@@ -7626,285 +7023,479 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE4ED10-53D3-4BE9-86E4-00A62FFC2E43}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="E4" sqref="E4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="F4" s="45"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E5" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>42736</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E6" s="17">
+        <v>42736</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>42737</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E7" s="17">
+        <v>42737</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>42738</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E8" s="17">
+        <v>42738</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>42739</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E9" s="17">
+        <v>42739</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>42740</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E10" s="17">
+        <v>42740</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>42741</v>
       </c>
       <c r="B11">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E11" s="17">
+        <v>42741</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>42742</v>
       </c>
       <c r="B12">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E12" s="17">
+        <v>42742</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>42744</v>
       </c>
       <c r="B13">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E13" s="17">
+        <v>42744</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>42745</v>
       </c>
       <c r="B14">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E14" s="17">
+        <v>42745</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>42746</v>
       </c>
       <c r="B15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E15" s="17">
+        <v>42746</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>42747</v>
       </c>
       <c r="B16">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E16" s="17">
+        <v>42747</v>
+      </c>
+      <c r="F16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>42748</v>
       </c>
       <c r="B17">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E17" s="17">
+        <v>42748</v>
+      </c>
+      <c r="F17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>42749</v>
       </c>
       <c r="B18">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E18" s="17">
+        <v>42749</v>
+      </c>
+      <c r="F18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>42750</v>
       </c>
       <c r="B19">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E19" s="17">
+        <v>42750</v>
+      </c>
+      <c r="F19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>42751</v>
       </c>
       <c r="B20">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E20" s="17">
+        <v>42751</v>
+      </c>
+      <c r="F20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>42752</v>
       </c>
       <c r="B21">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E21" s="17">
+        <v>42752</v>
+      </c>
+      <c r="F21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>42753</v>
       </c>
       <c r="B22">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E22" s="17">
+        <v>42753</v>
+      </c>
+      <c r="F22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>42754</v>
       </c>
       <c r="B23">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E23" s="17">
+        <v>42754</v>
+      </c>
+      <c r="F23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>42755</v>
       </c>
       <c r="B24">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E24" s="17">
+        <v>42755</v>
+      </c>
+      <c r="F24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>42756</v>
       </c>
       <c r="B25">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E25" s="17">
+        <v>42756</v>
+      </c>
+      <c r="F25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>42758</v>
       </c>
       <c r="B26">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E26" s="17">
+        <v>42758</v>
+      </c>
+      <c r="F26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>42757</v>
       </c>
       <c r="B27">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E27" s="17">
+        <v>42757</v>
+      </c>
+      <c r="F27">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>42759</v>
       </c>
       <c r="B28">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E28" s="17">
+        <v>42759</v>
+      </c>
+      <c r="F28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>42760</v>
       </c>
       <c r="B29">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E29" s="17">
+        <v>42760</v>
+      </c>
+      <c r="F29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>42761</v>
       </c>
       <c r="B30">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E30" s="17">
+        <v>42761</v>
+      </c>
+      <c r="F30">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>42762</v>
       </c>
       <c r="B31">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E31" s="17">
+        <v>42762</v>
+      </c>
+      <c r="F31">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <v>42763</v>
       </c>
       <c r="B32">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E32" s="17">
+        <v>42763</v>
+      </c>
+      <c r="F32">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
         <v>42764</v>
       </c>
       <c r="B33">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E33" s="17">
+        <v>42764</v>
+      </c>
+      <c r="F33">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="17">
         <v>42765</v>
       </c>
       <c r="B34">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E34" s="17">
+        <v>42765</v>
+      </c>
+      <c r="F34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="17">
         <v>42766</v>
       </c>
       <c r="B35">
+        <v>31</v>
+      </c>
+      <c r="E35" s="17">
+        <v>42766</v>
+      </c>
+      <c r="F35">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A5:B5" xr:uid="{84F65C72-9AF9-42EE-9A8A-3FE29E159613}"/>
   <conditionalFormatting sqref="A6:A35">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>A7&lt;&gt;(A6+1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B35">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>B7&lt;&gt;(B6+1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7914,35 +7505,49 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57A505F-AB90-4008-8149-6F5D91DE6A8C}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="F4" s="45"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>42736</v>
       </c>
@@ -7950,8 +7555,11 @@
         <f t="shared" ref="B6:B36" si="0">VLOOKUP(A6,Transactions,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="17">
+        <v>42736</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>42737</v>
       </c>
@@ -7959,8 +7567,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="17">
+        <v>42737</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>42738</v>
       </c>
@@ -7968,12 +7579,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G8" t="b">
-        <f>ISBLANK(A10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="17">
+        <v>42738</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>42739</v>
       </c>
@@ -7981,12 +7591,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G9" t="str">
-        <f>ADDRESS(A9,1,1)</f>
-        <v>$A$42739</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="17">
+        <v>42739</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>42740</v>
       </c>
@@ -7994,8 +7603,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="17">
+        <v>42740</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>42741</v>
       </c>
@@ -8003,12 +7615,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D11" t="b">
-        <f>OR((A9&lt;&gt;A8+1), ISBLANK(A9+1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="17">
+        <v>42741</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>42742</v>
       </c>
@@ -8016,8 +7627,11 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E12" s="17">
+        <v>42742</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>42743</v>
       </c>
@@ -8025,8 +7639,11 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="17">
+        <v>42743</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>42744</v>
       </c>
@@ -8034,8 +7651,11 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="17">
+        <v>42744</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>42745</v>
       </c>
@@ -8043,8 +7663,11 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="17">
+        <v>42745</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>42746</v>
       </c>
@@ -8052,8 +7675,11 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="17">
+        <v>42746</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>42747</v>
       </c>
@@ -8061,8 +7687,11 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="17">
+        <v>42747</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>42748</v>
       </c>
@@ -8070,8 +7699,11 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="17">
+        <v>42748</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>42749</v>
       </c>
@@ -8079,8 +7711,11 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="17">
+        <v>42749</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>42750</v>
       </c>
@@ -8088,8 +7723,11 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="17">
+        <v>42750</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>42751</v>
       </c>
@@ -8097,8 +7735,11 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="17">
+        <v>42751</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>42752</v>
       </c>
@@ -8106,8 +7747,11 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="17">
+        <v>42752</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>42753</v>
       </c>
@@ -8115,8 +7759,11 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="17">
+        <v>42753</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>42754</v>
       </c>
@@ -8124,8 +7771,11 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="17">
+        <v>42754</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>42755</v>
       </c>
@@ -8133,8 +7783,11 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="17">
+        <v>42755</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>42756</v>
       </c>
@@ -8142,8 +7795,11 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="17">
+        <v>42756</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>42757</v>
       </c>
@@ -8151,8 +7807,11 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="17">
+        <v>42757</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>42758</v>
       </c>
@@ -8160,8 +7819,11 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="17">
+        <v>42758</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>42759</v>
       </c>
@@ -8169,8 +7831,11 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="17">
+        <v>42759</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>42760</v>
       </c>
@@ -8178,8 +7843,11 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="17">
+        <v>42760</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>42761</v>
       </c>
@@ -8187,8 +7855,11 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="17">
+        <v>42761</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <v>42762</v>
       </c>
@@ -8196,8 +7867,11 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="17">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
         <v>42763</v>
       </c>
@@ -8205,8 +7879,11 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="17">
+        <v>42763</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="17">
         <v>42764</v>
       </c>
@@ -8214,8 +7891,11 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="17">
+        <v>42764</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="17">
         <v>42765</v>
       </c>
@@ -8223,8 +7903,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="17">
+        <v>42765</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="17">
         <v>42766</v>
       </c>
@@ -8232,15 +7915,12 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
+      <c r="E36" s="17">
+        <v>42766</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B36" xr:uid="{DF43AB74-59E8-4BC7-8E5F-1876B14DD7DB}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="#N/A"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A5:B36" xr:uid="{DF43AB74-59E8-4BC7-8E5F-1876B14DD7DB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Excel/Labs/Excel Data Analysis for Auditors.xlsx
+++ b/Excel/Labs/Excel Data Analysis for Auditors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevReady\Workshops\Microsoft Office\Courses\Excel\Advanced Excel for IA\Labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917D6992-051A-45BE-A39E-655D9F60BDB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35035B0-3C74-4DED-BC0A-EB438DA3CDB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{26E27E33-D07B-4553-B9D6-3803F30BBC3E}"/>
   </bookViews>
@@ -1272,6 +1272,30 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
@@ -1297,30 +1321,6 @@
           <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1372,9 +1372,9 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{9872D77B-B7B8-49FE-B232-D15FB47FFB04}" name="OrderID" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{F412AF4D-F038-4210-8299-038772EE641D}" name="ProductID"/>
-    <tableColumn id="3" xr3:uid="{12215B76-0E01-4968-A09A-5A9C9AA4AEAD}" name="UnitPrice" dataDxfId="10" totalsRowDxfId="9" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{12215B76-0E01-4968-A09A-5A9C9AA4AEAD}" name="UnitPrice" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Currency"/>
     <tableColumn id="4" xr3:uid="{FEC02423-5CD0-47AE-972A-95F157082495}" name="Quantity"/>
-    <tableColumn id="6" xr3:uid="{7C9E7739-3F30-4A53-942E-BA7532344691}" name="Sales" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="7" dataCellStyle="Currency">
+    <tableColumn id="6" xr3:uid="{7C9E7739-3F30-4A53-942E-BA7532344691}" name="Sales" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Currency">
       <calculatedColumnFormula>Table3[[#This Row],[UnitPrice]]*Table3[[#This Row],[Quantity]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1388,9 +1388,9 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{292E6F6A-4BE8-42DC-98A1-65CD759A2EE7}" name="OrderID" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{22C1ACFF-23DE-43CF-8926-9ED20A629930}" name="ProductID"/>
-    <tableColumn id="3" xr3:uid="{A941D3F7-A0E4-4438-8FB9-915C37AB8B60}" name="UnitPrice" dataDxfId="5" totalsRowDxfId="6" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{A941D3F7-A0E4-4438-8FB9-915C37AB8B60}" name="UnitPrice" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Currency"/>
     <tableColumn id="4" xr3:uid="{806AF866-CF21-46A4-A43F-CDE1F27CDE5C}" name="Quantity"/>
-    <tableColumn id="6" xr3:uid="{0A0275F6-C186-42E4-8970-E2B394621E89}" name="Sales" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="4" dataCellStyle="Currency">
+    <tableColumn id="6" xr3:uid="{0A0275F6-C186-42E4-8970-E2B394621E89}" name="Sales" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Currency">
       <calculatedColumnFormula>Table33[[#This Row],[UnitPrice]]*Table33[[#This Row],[Quantity]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1698,7 +1698,7 @@
   <dimension ref="B2:C11"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="F8" s="4">
         <f ca="1">RANDBETWEEN(200,2000)</f>
-        <v>1440</v>
+        <v>722</v>
       </c>
       <c r="G8" s="20">
         <f ca="1">$B$6-E8</f>
@@ -1884,7 +1884,7 @@
       </c>
       <c r="I8">
         <f ca="1">IF(AND($G8&gt;30,$G8&lt;=60),$F8,"")</f>
-        <v>1440</v>
+        <v>722</v>
       </c>
       <c r="J8" t="str">
         <f ca="1">IF($G8&gt;60,$F8,"")</f>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="F9" s="4">
         <f t="shared" ref="F9:F19" ca="1" si="1">RANDBETWEEN(200,2000)</f>
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="G9" s="20">
         <f t="shared" ref="G9:G19" ca="1" si="2">$B$6-E9</f>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="J9">
         <f t="shared" ref="J9:J19" ca="1" si="5">IF($G9&gt;60,$F9,"")</f>
-        <v>388</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="F10" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1521</v>
+        <v>654</v>
       </c>
       <c r="G10" s="20">
         <f t="shared" ca="1" si="2"/>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="4"/>
-        <v>1521</v>
+        <v>654</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="F11" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1076</v>
+        <v>814</v>
       </c>
       <c r="G11" s="20">
         <f t="shared" ca="1" si="2"/>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="3"/>
-        <v>1076</v>
+        <v>814</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="F12" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>499</v>
+        <v>572</v>
       </c>
       <c r="G12" s="20">
         <f t="shared" ca="1" si="2"/>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="4"/>
-        <v>499</v>
+        <v>572</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1747</v>
+        <v>1801</v>
       </c>
       <c r="G13" s="20">
         <f t="shared" ca="1" si="2"/>
@@ -2070,7 +2070,7 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="3"/>
-        <v>1747</v>
+        <v>1801</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2100,7 +2100,7 @@
       </c>
       <c r="F14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>673</v>
+        <v>607</v>
       </c>
       <c r="G14" s="20">
         <f t="shared" ca="1" si="2"/>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="3"/>
-        <v>673</v>
+        <v>607</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="F15" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1169</v>
+        <v>832</v>
       </c>
       <c r="G15" s="20">
         <f t="shared" ca="1" si="2"/>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="5"/>
-        <v>1169</v>
+        <v>832</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="F16" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1123</v>
+        <v>880</v>
       </c>
       <c r="G16" s="20">
         <f t="shared" ca="1" si="2"/>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="5"/>
-        <v>1123</v>
+        <v>880</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="F17" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1946</v>
+        <v>285</v>
       </c>
       <c r="G17" s="20">
         <f t="shared" ca="1" si="2"/>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="4"/>
-        <v>1946</v>
+        <v>285</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="F18" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>501</v>
+        <v>782</v>
       </c>
       <c r="G18" s="20">
         <f t="shared" ca="1" si="2"/>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="4"/>
-        <v>501</v>
+        <v>782</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="F19" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1534</v>
+        <v>960</v>
       </c>
       <c r="G19" s="20">
         <f t="shared" ca="1" si="2"/>
@@ -2298,7 +2298,7 @@
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="3"/>
-        <v>1534</v>
+        <v>960</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="F20" s="24">
         <f ca="1">SUM(F8:F19)</f>
-        <v>13617</v>
+        <v>9269</v>
       </c>
       <c r="G20" s="46">
         <f ca="1">AVERAGE(G8:G19)</f>
@@ -2328,15 +2328,15 @@
       </c>
       <c r="H20" s="24">
         <f ca="1">SUM(H8:H19)</f>
-        <v>5030</v>
+        <v>4182</v>
       </c>
       <c r="I20" s="24">
         <f t="shared" ref="I20:J20" ca="1" si="6">SUM(I8:I19)</f>
-        <v>5907</v>
+        <v>3015</v>
       </c>
       <c r="J20" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>2680</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="F26" s="4">
         <f ca="1">RANDBETWEEN(200,2000)</f>
-        <v>1935</v>
+        <v>1470</v>
       </c>
       <c r="G26" s="20">
         <f ca="1">$B$6-E26</f>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="F27" s="4">
         <f t="shared" ref="F27:F37" ca="1" si="8">RANDBETWEEN(200,2000)</f>
-        <v>1148</v>
+        <v>1348</v>
       </c>
       <c r="G27" s="20">
         <f t="shared" ref="G27:G37" ca="1" si="9">$B$6-E27</f>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="F28" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>514</v>
+        <v>1987</v>
       </c>
       <c r="G28" s="20">
         <f t="shared" ca="1" si="9"/>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="F29" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>1193</v>
+        <v>956</v>
       </c>
       <c r="G29" s="20">
         <f t="shared" ca="1" si="9"/>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="F30" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>1463</v>
+        <v>274</v>
       </c>
       <c r="G30" s="20">
         <f t="shared" ca="1" si="9"/>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="F31" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>359</v>
+        <v>1222</v>
       </c>
       <c r="G31" s="20">
         <f t="shared" ca="1" si="9"/>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="F32" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>1845</v>
+        <v>1390</v>
       </c>
       <c r="G32" s="20">
         <f t="shared" ca="1" si="9"/>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="F33" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>1596</v>
+        <v>1268</v>
       </c>
       <c r="G33" s="20">
         <f t="shared" ca="1" si="9"/>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="F34" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>218</v>
+        <v>1371</v>
       </c>
       <c r="G34" s="20">
         <f t="shared" ca="1" si="9"/>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="F35" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>753</v>
+        <v>1078</v>
       </c>
       <c r="G35" s="20">
         <f t="shared" ca="1" si="9"/>
@@ -2668,7 +2668,7 @@
       </c>
       <c r="F36" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>1183</v>
+        <v>1554</v>
       </c>
       <c r="G36" s="20">
         <f t="shared" ca="1" si="9"/>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="F37" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>1983</v>
+        <v>1004</v>
       </c>
       <c r="G37" s="20">
         <f t="shared" ca="1" si="9"/>
@@ -2714,7 +2714,7 @@
   </sheetData>
   <autoFilter ref="A7:G20" xr:uid="{96AD878E-58F6-4A8F-AABE-CAA94690029A}"/>
   <conditionalFormatting sqref="A8:G19">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>$G8&gt;60</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7490,12 +7490,12 @@
   </sheetData>
   <autoFilter ref="A5:B5" xr:uid="{84F65C72-9AF9-42EE-9A8A-3FE29E159613}"/>
   <conditionalFormatting sqref="A6:A35">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>A7&lt;&gt;(A6+1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B35">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>B7&lt;&gt;(B6+1)</formula>
     </cfRule>
   </conditionalFormatting>
